--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -574,24 +574,24 @@
     <t>5.10.2023</t>
   </si>
   <si>
+    <t>9.11.2023</t>
+  </si>
+  <si>
     <t>30.11.2023</t>
   </si>
   <si>
-    <t>9.11.2023</t>
-  </si>
-  <si>
     <t>2.5.2024</t>
   </si>
   <si>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>21.3.2024</t>
+  </si>
+  <si>
     <t>22.2.2024</t>
   </si>
   <si>
-    <t>21.3.2024</t>
-  </si>
-  <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
     <t>19.2.2024</t>
   </si>
   <si>
@@ -640,12 +640,12 @@
     <t>15.12.2023</t>
   </si>
   <si>
+    <t>9.12.2023</t>
+  </si>
+  <si>
     <t>3.12.2023</t>
   </si>
   <si>
-    <t>9.12.2023</t>
-  </si>
-  <si>
     <t>6.1.2024</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>14.10.2023</t>
   </si>
   <si>
+    <t>17.12.2023</t>
+  </si>
+  <si>
     <t>19.11.2023</t>
   </si>
   <si>
     <t>8.10.2023</t>
   </si>
   <si>
-    <t>17.12.2023</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
@@ -730,15 +730,15 @@
     <t>28.2.2024</t>
   </si>
   <si>
+    <t>7.12.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
     <t>23.11.2023</t>
   </si>
   <si>
-    <t>7.12.2023</t>
-  </si>
-  <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
     <t>4.1.2024</t>
   </si>
   <si>
@@ -748,21 +748,21 @@
     <t>12.10.2023</t>
   </si>
   <si>
+    <t>25.4.2024</t>
+  </si>
+  <si>
     <t>7.3.2024</t>
   </si>
   <si>
+    <t>28.3.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
     <t>4.4.2024</t>
   </si>
   <si>
-    <t>28.3.2024</t>
-  </si>
-  <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>25.4.2024</t>
-  </si>
-  <si>
     <t>15.5.2024</t>
   </si>
   <si>
@@ -817,12 +817,12 @@
     <t>17:00</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>09:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -841,12 +841,12 @@
     <t>10:50</t>
   </si>
   <si>
+    <t>12:50</t>
+  </si>
+  <si>
     <t>16:50</t>
   </si>
   <si>
-    <t>12:50</t>
-  </si>
-  <si>
     <t>15:50</t>
   </si>
   <si>
@@ -898,12 +898,12 @@
     <t>Regionální geografie II</t>
   </si>
   <si>
+    <t>Chemické inženýrství</t>
+  </si>
+  <si>
     <t>Rozvojové problémy regionů Česka</t>
   </si>
   <si>
-    <t>Chemické inženýrství</t>
-  </si>
-  <si>
     <t>Monitor. vybr. prvků atmosf.a hydrosf. I</t>
   </si>
   <si>
@@ -1099,12 +1099,12 @@
     <t>Teorie a koncepty rurální geografie</t>
   </si>
   <si>
+    <t>Odborná angličtina Nmgr.</t>
+  </si>
+  <si>
     <t>Metody a aplikace historické geografie</t>
   </si>
   <si>
-    <t>Odborná angličtina Nmgr.</t>
-  </si>
-  <si>
     <t>Chemické inženýrství Nmgr.</t>
   </si>
   <si>
@@ -1660,33 +1660,33 @@
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
+    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
     <t>Šícha Václav, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
-  </si>
-  <si>
-    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
-  </si>
-  <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
     <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
+    <t>Král Tomáš, Mgr.</t>
+  </si>
+  <si>
     <t>Šmíd Ondřej, Mgr.</t>
   </si>
   <si>
-    <t>Král Tomáš, Mgr.</t>
-  </si>
-  <si>
     <t>Harrandt Václav, Mgr.</t>
   </si>
   <si>
@@ -1735,12 +1735,12 @@
     <t>Babichev Sergii, prof. CSc., DSc.</t>
   </si>
   <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Dočkal Jan, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1831,10 +1831,10 @@
     <t>Kuráň Pavel, doc. Dr. Ing.</t>
   </si>
   <si>
+    <t>Oravová Lucie, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Barchánková Ivana, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Oravová Lucie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="2">
-        <v>8819</v>
+        <v>9301</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>181</v>
@@ -2626,42 +2626,42 @@
         <v>2023</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2">
-        <v>9301</v>
+        <v>8819</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>181</v>
@@ -2670,42 +2670,42 @@
         <v>2023</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>8819</v>
+        <v>9301</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>181</v>
@@ -2714,42 +2714,42 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>9301</v>
+        <v>8819</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>181</v>
@@ -2758,31 +2758,31 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>4310</v>
+        <v>4117</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2837,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>429</v>
+        <v>1803</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2881,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>4117</v>
+        <v>7723</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2890,10 +2890,10 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>261</v>
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2958,7 +2958,7 @@
         <v>477</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>7723</v>
+        <v>2856</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>181</v>
@@ -2978,10 +2978,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>261</v>
@@ -3002,7 +3002,7 @@
         <v>477</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>1803</v>
+        <v>4310</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>181</v>
@@ -3022,10 +3022,10 @@
         <v>2023</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>261</v>
@@ -3046,7 +3046,7 @@
         <v>477</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3057,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>2856</v>
+        <v>429</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3066,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3090,7 +3090,7 @@
         <v>477</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3116,10 +3116,10 @@
         <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>14</v>
@@ -3163,7 +3163,7 @@
         <v>260</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -3189,7 +3189,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>181</v>
@@ -3198,13 +3198,13 @@
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>276</v>
@@ -3222,7 +3222,7 @@
         <v>478</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3242,7 +3242,7 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>252</v>
@@ -3277,7 +3277,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>181</v>
@@ -3286,16 +3286,16 @@
         <v>2023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3453,7 +3453,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>181</v>
@@ -3462,16 +3462,16 @@
         <v>2023</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -3506,16 +3506,16 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3574,7 +3574,7 @@
         <v>480</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3621,13 +3621,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <v>6919</v>
+        <v>9431</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>181</v>
@@ -3636,27 +3636,31 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="N33" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3691,7 +3695,7 @@
         <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3707,7 +3711,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>9265</v>
+        <v>6919</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>181</v>
@@ -3716,38 +3720,38 @@
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>9431</v>
+        <v>9265</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>181</v>
@@ -3756,31 +3760,27 @@
         <v>2023</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3809,7 +3809,7 @@
         <v>265</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>14</v>
@@ -3971,7 +3971,7 @@
         <v>260</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -4094,10 +4094,10 @@
         <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -4132,10 +4132,10 @@
         <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -4164,16 +4164,16 @@
         <v>2023</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>14</v>
@@ -4208,16 +4208,16 @@
         <v>2023</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>252</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>14</v>
@@ -4258,7 +4258,7 @@
         <v>251</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>278</v>
@@ -4302,7 +4302,7 @@
         <v>250</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>274</v>
@@ -4327,7 +4327,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>181</v>
@@ -4360,7 +4360,7 @@
         <v>478</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4371,7 +4371,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>181</v>
@@ -4404,7 +4404,7 @@
         <v>478</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4577,13 +4577,13 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="2">
-        <v>2856</v>
+        <v>3164</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>181</v>
@@ -4598,36 +4598,32 @@
         <v>196</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
       <c r="N56" s="1" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C57" s="2">
-        <v>3164</v>
+        <v>2856</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>181</v>
@@ -4642,21 +4638,25 @@
         <v>196</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="N57" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4685,7 +4685,7 @@
         <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
@@ -4726,10 +4726,10 @@
         <v>198</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
@@ -4770,10 +4770,10 @@
         <v>198</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>16</v>
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="2">
-        <v>4310</v>
+        <v>1803</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
@@ -4814,10 +4814,10 @@
         <v>198</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>16</v>
@@ -4832,7 +4832,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>1803</v>
+        <v>4226</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4858,10 +4858,10 @@
         <v>198</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>16</v>
@@ -4876,7 +4876,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4887,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4902,10 +4902,10 @@
         <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>16</v>
@@ -4920,7 +4920,7 @@
         <v>477</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>4226</v>
+        <v>4117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4946,10 +4946,10 @@
         <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>16</v>
@@ -4964,7 +4964,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4990,10 +4990,10 @@
         <v>199</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>17</v>
@@ -5034,10 +5034,10 @@
         <v>200</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>17</v>
@@ -5121,7 +5121,7 @@
         <v>261</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -5162,10 +5162,10 @@
         <v>202</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -5206,10 +5206,10 @@
         <v>203</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>17</v>
@@ -5250,10 +5250,10 @@
         <v>204</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>17</v>
@@ -5294,10 +5294,10 @@
         <v>205</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>17</v>
@@ -5341,13 +5341,13 @@
         <v>261</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>401</v>
@@ -5376,22 +5376,22 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>401</v>
@@ -5420,22 +5420,22 @@
         <v>2023</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>261</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>401</v>
@@ -5473,7 +5473,7 @@
         <v>262</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
@@ -5510,10 +5510,10 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>17</v>
@@ -5552,10 +5552,10 @@
         <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -5594,10 +5594,10 @@
         <v>210</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>17</v>
@@ -5682,7 +5682,7 @@
         <v>255</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>273</v>
@@ -5726,7 +5726,7 @@
         <v>250</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>273</v>
@@ -5773,7 +5773,7 @@
         <v>264</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -5988,7 +5988,7 @@
         <v>256</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>273</v>
@@ -6026,10 +6026,10 @@
         <v>2023</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>260</v>
@@ -6070,10 +6070,10 @@
         <v>2023</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>260</v>
@@ -6114,7 +6114,7 @@
         <v>2023</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>252</v>
@@ -6167,7 +6167,7 @@
         <v>265</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>18</v>
@@ -6207,7 +6207,7 @@
         <v>260</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>18</v>
@@ -6233,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <v>6973</v>
+        <v>6259</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -6251,7 +6251,7 @@
         <v>260</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>18</v>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="C95" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -6295,7 +6295,7 @@
         <v>260</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -6333,7 +6333,7 @@
         <v>216</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>263</v>
@@ -6374,7 +6374,7 @@
         <v>2023</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>252</v>
@@ -6398,7 +6398,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6424,7 +6424,7 @@
         <v>251</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>278</v>
@@ -6471,7 +6471,7 @@
         <v>259</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>15</v>
@@ -6600,7 +6600,7 @@
         <v>250</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>278</v>
@@ -6640,7 +6640,7 @@
         <v>250</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>278</v>
@@ -6724,10 +6724,10 @@
         <v>219</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>20</v>
@@ -6768,10 +6768,10 @@
         <v>220</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>20</v>
@@ -6812,10 +6812,10 @@
         <v>221</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>20</v>
@@ -6856,10 +6856,10 @@
         <v>210</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>17</v>
@@ -6900,10 +6900,10 @@
         <v>199</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>17</v>
@@ -6944,10 +6944,10 @@
         <v>200</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>17</v>
@@ -6982,13 +6982,13 @@
         <v>2023</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>272</v>
@@ -7022,13 +7022,13 @@
         <v>2023</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>272</v>
@@ -7068,10 +7068,10 @@
         <v>211</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>17</v>
@@ -7108,10 +7108,10 @@
         <v>223</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>17</v>
@@ -7166,7 +7166,7 @@
         <v>471</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7230,10 +7230,10 @@
         <v>2023</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>263</v>
@@ -7272,10 +7272,10 @@
         <v>2023</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>264</v>
@@ -7320,10 +7320,10 @@
         <v>197</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>17</v>
@@ -7358,10 +7358,10 @@
         <v>2023</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>263</v>
@@ -7411,7 +7411,7 @@
         <v>261</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>16</v>
@@ -7452,10 +7452,10 @@
         <v>202</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>16</v>
@@ -7496,10 +7496,10 @@
         <v>222</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>17</v>
@@ -7540,10 +7540,10 @@
         <v>225</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>17</v>
@@ -7584,7 +7584,7 @@
         <v>203</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>270</v>
@@ -7668,7 +7668,7 @@
         <v>205</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>272</v>
@@ -7748,10 +7748,10 @@
         <v>199</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>17</v>
@@ -7792,10 +7792,10 @@
         <v>200</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>17</v>
@@ -7836,10 +7836,10 @@
         <v>203</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>17</v>
@@ -7874,16 +7874,16 @@
         <v>2023</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>17</v>
@@ -7918,16 +7918,16 @@
         <v>2023</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>17</v>
@@ -7968,10 +7968,10 @@
         <v>208</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>17</v>
@@ -8010,10 +8010,10 @@
         <v>209</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>17</v>
@@ -8052,10 +8052,10 @@
         <v>210</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>17</v>
@@ -8140,7 +8140,7 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>270</v>
@@ -8184,7 +8184,7 @@
         <v>229</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>274</v>
@@ -8222,16 +8222,16 @@
         <v>2023</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>18</v>
@@ -8266,16 +8266,16 @@
         <v>2023</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>18</v>
@@ -8310,16 +8310,16 @@
         <v>2023</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>15</v>
@@ -8354,16 +8354,16 @@
         <v>2023</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>15</v>
@@ -8404,10 +8404,10 @@
         <v>223</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>15</v>
@@ -8564,10 +8564,10 @@
         <v>211</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>17</v>
@@ -8608,10 +8608,10 @@
         <v>205</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>17</v>
@@ -8648,10 +8648,10 @@
         <v>231</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>16</v>
@@ -8666,7 +8666,7 @@
         <v>510</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8750,7 +8750,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8794,7 +8794,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8838,7 +8838,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8902,10 +8902,10 @@
         <v>2023</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>263</v>
@@ -9025,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2">
-        <v>332</v>
+        <v>4310</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -9058,7 +9058,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>593</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9113,7 +9113,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="2">
-        <v>4310</v>
+        <v>332</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -9146,7 +9146,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>548</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9172,7 +9172,7 @@
         <v>249</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>273</v>
@@ -9395,7 +9395,7 @@
         <v>260</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>14</v>
@@ -9436,7 +9436,7 @@
         <v>254</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>278</v>
@@ -9459,13 +9459,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C169" s="2">
-        <v>2214</v>
+        <v>1064</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>181</v>
@@ -9474,10 +9474,10 @@
         <v>2023</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>261</v>
@@ -9486,30 +9486,30 @@
         <v>272</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>361</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C170" s="2">
-        <v>1064</v>
+        <v>2214</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>181</v>
@@ -9518,10 +9518,10 @@
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>261</v>
@@ -9530,19 +9530,19 @@
         <v>272</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>362</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9562,16 +9562,16 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>16</v>
@@ -9591,13 +9591,13 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C172" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>181</v>
@@ -9606,42 +9606,42 @@
         <v>2023</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -9650,31 +9650,31 @@
         <v>2023</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9958,7 +9958,7 @@
         <v>2023</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>252</v>
@@ -10008,7 +10008,7 @@
         <v>256</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>274</v>
@@ -10319,7 +10319,7 @@
         <v>259</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>14</v>
@@ -10360,7 +10360,7 @@
         <v>250</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>278</v>
@@ -10394,10 +10394,10 @@
         <v>2023</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>261</v>
@@ -10438,10 +10438,10 @@
         <v>2023</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>261</v>
@@ -10532,10 +10532,10 @@
         <v>253</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>14</v>
@@ -10576,10 +10576,10 @@
         <v>253</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>14</v>
@@ -10664,7 +10664,7 @@
         <v>241</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>278</v>
@@ -10698,7 +10698,7 @@
         <v>2023</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>252</v>
@@ -10748,10 +10748,10 @@
         <v>210</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>15</v>
@@ -10828,7 +10828,7 @@
         <v>203</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>270</v>
@@ -10868,7 +10868,7 @@
         <v>241</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>278</v>
@@ -10959,7 +10959,7 @@
         <v>260</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>16</v>
@@ -11018,7 +11018,7 @@
         <v>510</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11082,10 +11082,10 @@
         <v>2023</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>261</v>
@@ -11126,10 +11126,10 @@
         <v>2023</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>261</v>
@@ -11170,10 +11170,10 @@
         <v>2023</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>261</v>
@@ -11214,10 +11214,10 @@
         <v>2023</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>261</v>
@@ -11258,10 +11258,10 @@
         <v>2023</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>261</v>
@@ -11308,7 +11308,7 @@
         <v>241</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>273</v>
@@ -11337,7 +11337,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="2">
-        <v>9441</v>
+        <v>8200</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -11352,7 +11352,7 @@
         <v>241</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>273</v>
@@ -11381,7 +11381,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="2">
-        <v>8200</v>
+        <v>9441</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -11396,7 +11396,7 @@
         <v>241</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>273</v>
@@ -11522,10 +11522,10 @@
         <v>2023</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>261</v>
@@ -11566,10 +11566,10 @@
         <v>2023</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>261</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>153</v>
@@ -11754,7 +11754,7 @@
         <v>277</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>390</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>153</v>
@@ -11798,7 +11798,7 @@
         <v>277</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>390</v>
@@ -11854,7 +11854,7 @@
         <v>535</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -12022,7 +12022,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12066,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12110,7 +12110,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12348,10 +12348,10 @@
         <v>251</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>17</v>
@@ -12388,10 +12388,10 @@
         <v>251</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>17</v>
@@ -12508,10 +12508,10 @@
         <v>2023</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>261</v>
@@ -12552,10 +12552,10 @@
         <v>2023</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>261</v>
@@ -12596,10 +12596,10 @@
         <v>2023</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>261</v>
@@ -12640,10 +12640,10 @@
         <v>2023</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>261</v>
@@ -12684,10 +12684,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12728,10 +12728,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -12900,13 +12900,13 @@
         <v>2023</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>273</v>
@@ -12944,13 +12944,13 @@
         <v>2023</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>273</v>
@@ -12997,7 +12997,7 @@
         <v>264</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>17</v>
@@ -13204,10 +13204,10 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>259</v>
@@ -13248,10 +13248,10 @@
         <v>2023</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>259</v>
@@ -13292,16 +13292,16 @@
         <v>2023</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>15</v>
@@ -13332,16 +13332,16 @@
         <v>2023</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>15</v>
@@ -13469,7 +13469,7 @@
         <v>260</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>18</v>

--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -568,18 +568,18 @@
     <t>4.10.2023</t>
   </si>
   <si>
+    <t>5.10.2023</t>
+  </si>
+  <si>
     <t>6.10.2023</t>
   </si>
   <si>
-    <t>5.10.2023</t>
+    <t>30.11.2023</t>
   </si>
   <si>
     <t>9.11.2023</t>
   </si>
   <si>
-    <t>30.11.2023</t>
-  </si>
-  <si>
     <t>2.5.2024</t>
   </si>
   <si>
@@ -628,18 +628,18 @@
     <t>13.4.2024</t>
   </si>
   <si>
+    <t>30.3.2024</t>
+  </si>
+  <si>
     <t>27.4.2024</t>
   </si>
   <si>
-    <t>30.3.2024</t>
+    <t>15.12.2023</t>
   </si>
   <si>
     <t>22.12.2023</t>
   </si>
   <si>
-    <t>15.12.2023</t>
-  </si>
-  <si>
     <t>9.12.2023</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>29.2.2024</t>
   </si>
   <si>
+    <t>16.3.2024</t>
+  </si>
+  <si>
     <t>9.3.2024</t>
   </si>
   <si>
-    <t>16.3.2024</t>
-  </si>
-  <si>
     <t>24.3.2024</t>
   </si>
   <si>
@@ -730,36 +730,36 @@
     <t>28.2.2024</t>
   </si>
   <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>2.11.2023</t>
+  </si>
+  <si>
+    <t>4.1.2024</t>
+  </si>
+  <si>
     <t>7.12.2023</t>
   </si>
   <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>4.1.2024</t>
-  </si>
-  <si>
-    <t>2.11.2023</t>
-  </si>
-  <si>
     <t>12.10.2023</t>
   </si>
   <si>
     <t>25.4.2024</t>
   </si>
   <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
     <t>7.3.2024</t>
   </si>
   <si>
     <t>28.3.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
     <t>4.4.2024</t>
   </si>
   <si>
@@ -805,12 +805,12 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>10:00</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
     <t>15:00</t>
   </si>
   <si>
@@ -1099,18 +1099,18 @@
     <t>Teorie a koncepty rurální geografie</t>
   </si>
   <si>
+    <t>Metody a aplikace historické geografie</t>
+  </si>
+  <si>
     <t>Odborná angličtina Nmgr.</t>
   </si>
   <si>
-    <t>Metody a aplikace historické geografie</t>
+    <t>Kulturní krajiny Česka</t>
   </si>
   <si>
     <t>Chemické inženýrství Nmgr.</t>
   </si>
   <si>
-    <t>Kulturní krajiny Česka</t>
-  </si>
-  <si>
     <t>Syntéza, izolace a charakterizace látek</t>
   </si>
   <si>
@@ -1126,12 +1126,12 @@
     <t>Didaktika geografie II</t>
   </si>
   <si>
+    <t>Poč. modelování spojitých soustav III</t>
+  </si>
+  <si>
     <t>Urbánní environmentalistika</t>
   </si>
   <si>
-    <t>Poč. modelování spojitých soustav III</t>
-  </si>
-  <si>
     <t>Diplomový seminář I</t>
   </si>
   <si>
@@ -1651,15 +1651,18 @@
     <t>Greguš Viktor, Ing.</t>
   </si>
   <si>
+    <t>Škvorová Magda, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Dědičová Šárka, Mgr.</t>
   </si>
   <si>
-    <t>Škvorová Magda, Ing. Ph.D.</t>
-  </si>
-  <si>
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Šícha Václav, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
   </si>
   <si>
@@ -1669,9 +1672,6 @@
     <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
   </si>
   <si>
-    <t>Šícha Václav, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1681,12 +1681,12 @@
     <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
+    <t>Šmíd Ondřej, Mgr.</t>
+  </si>
+  <si>
     <t>Král Tomáš, Mgr.</t>
   </si>
   <si>
-    <t>Šmíd Ondřej, Mgr.</t>
-  </si>
-  <si>
     <t>Harrandt Václav, Mgr.</t>
   </si>
   <si>
@@ -1732,15 +1732,15 @@
     <t>Krejčí Jan, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Beránek Pavel, Ing. Mgr.</t>
+  </si>
+  <si>
     <t>Babichev Sergii, prof. CSc., DSc.</t>
   </si>
   <si>
     <t>Škvára Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Beránek Pavel, Ing. Mgr.</t>
-  </si>
-  <si>
     <t>Dočkal Jan, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1831,10 +1831,10 @@
     <t>Kuráň Pavel, doc. Dr. Ing.</t>
   </si>
   <si>
+    <t>Barchánková Ivana, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Oravová Lucie, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Barchánková Ivana, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
@@ -2445,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>9049</v>
+        <v>2856</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>181</v>
@@ -2457,13 +2457,13 @@
         <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2489,7 +2489,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>2856</v>
+        <v>9049</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>181</v>
@@ -2501,13 +2501,13 @@
         <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -2632,7 +2632,7 @@
         <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>274</v>
@@ -2673,10 +2673,10 @@
         <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>273</v>
@@ -2699,13 +2699,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>9301</v>
+        <v>8819</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>181</v>
@@ -2714,42 +2714,42 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>8819</v>
+        <v>9301</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>181</v>
@@ -2758,31 +2758,31 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>4117</v>
+        <v>4310</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2837,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>1803</v>
+        <v>7723</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2881,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>7723</v>
+        <v>4117</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2890,10 +2890,10 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>261</v>
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2925,7 +2925,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>305</v>
+        <v>1803</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2934,10 +2934,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>261</v>
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>2856</v>
+        <v>305</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>181</v>
@@ -3002,7 +3002,7 @@
         <v>477</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>4310</v>
+        <v>429</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>181</v>
@@ -3022,10 +3022,10 @@
         <v>2023</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>261</v>
@@ -3046,7 +3046,7 @@
         <v>477</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3057,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>429</v>
+        <v>2856</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3066,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3090,7 +3090,7 @@
         <v>477</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3336,10 +3336,10 @@
         <v>253</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
@@ -3380,10 +3380,10 @@
         <v>253</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -3424,7 +3424,7 @@
         <v>251</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>273</v>
@@ -3442,7 +3442,7 @@
         <v>474</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3453,7 +3453,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>181</v>
@@ -3462,16 +3462,16 @@
         <v>2023</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -3506,16 +3506,16 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3574,7 +3574,7 @@
         <v>480</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3594,7 +3594,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>196</v>
@@ -3636,7 +3636,7 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>196</v>
@@ -3671,7 +3671,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>6919</v>
+        <v>9265</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>181</v>
@@ -3686,10 +3686,10 @@
         <v>254</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>14</v>
@@ -3700,7 +3700,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3720,16 +3720,16 @@
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>14</v>
@@ -3751,7 +3751,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>9265</v>
+        <v>6919</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>181</v>
@@ -3760,16 +3760,16 @@
         <v>2023</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>14</v>
@@ -3780,7 +3780,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3840,16 +3840,16 @@
         <v>2023</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>14</v>
@@ -3882,16 +3882,16 @@
         <v>2023</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>14</v>
@@ -3968,10 +3968,10 @@
         <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -4012,10 +4012,10 @@
         <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -4056,10 +4056,10 @@
         <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>14</v>
@@ -4132,10 +4132,10 @@
         <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -4327,7 +4327,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>181</v>
@@ -4336,13 +4336,13 @@
         <v>2023</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>277</v>
@@ -4360,7 +4360,7 @@
         <v>478</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4371,7 +4371,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>181</v>
@@ -4380,13 +4380,13 @@
         <v>2023</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>277</v>
@@ -4404,7 +4404,7 @@
         <v>478</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -4424,10 +4424,10 @@
         <v>2023</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>261</v>
@@ -4464,10 +4464,10 @@
         <v>2023</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>261</v>
@@ -4632,16 +4632,16 @@
         <v>2023</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
@@ -4656,7 +4656,7 @@
         <v>474</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -4676,16 +4676,16 @@
         <v>2023</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
@@ -4700,7 +4700,7 @@
         <v>474</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4711,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="2">
-        <v>2856</v>
+        <v>429</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
@@ -4744,7 +4744,7 @@
         <v>477</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4755,7 +4755,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="2">
-        <v>429</v>
+        <v>4310</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4832,7 +4832,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>4226</v>
+        <v>2856</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4876,7 +4876,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4887,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>4310</v>
+        <v>4117</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4920,7 +4920,7 @@
         <v>477</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>4117</v>
+        <v>4226</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4964,7 +4964,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5112,16 +5112,16 @@
         <v>2023</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -5136,7 +5136,7 @@
         <v>474</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5156,16 +5156,16 @@
         <v>2023</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -5180,7 +5180,7 @@
         <v>474</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5332,10 +5332,10 @@
         <v>2023</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>261</v>
@@ -5376,10 +5376,10 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
@@ -5510,7 +5510,7 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>279</v>
@@ -5552,7 +5552,7 @@
         <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>270</v>
@@ -5638,7 +5638,7 @@
         <v>211</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>279</v>
@@ -5764,13 +5764,13 @@
         <v>2023</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>275</v>
@@ -5808,7 +5808,7 @@
         <v>2023</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>241</v>
@@ -5858,7 +5858,7 @@
         <v>253</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>277</v>
@@ -5940,7 +5940,7 @@
         <v>2023</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>241</v>
@@ -6070,10 +6070,10 @@
         <v>2023</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>260</v>
@@ -6158,7 +6158,7 @@
         <v>2023</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>241</v>
@@ -6189,7 +6189,7 @@
         <v>67</v>
       </c>
       <c r="C93" s="2">
-        <v>3416</v>
+        <v>6973</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
@@ -6233,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <v>6259</v>
+        <v>3416</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="C95" s="2">
-        <v>6973</v>
+        <v>6259</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -6336,7 +6336,7 @@
         <v>189</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>272</v>
@@ -6354,7 +6354,7 @@
         <v>492</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6380,7 +6380,7 @@
         <v>252</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>273</v>
@@ -6398,7 +6398,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6530,7 +6530,7 @@
         <v>492</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6556,7 +6556,7 @@
         <v>251</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>274</v>
@@ -7148,7 +7148,7 @@
         <v>224</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>271</v>
@@ -7166,7 +7166,7 @@
         <v>471</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -7192,7 +7192,7 @@
         <v>224</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>271</v>
@@ -7236,7 +7236,7 @@
         <v>208</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>279</v>
@@ -7278,7 +7278,7 @@
         <v>209</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>270</v>
@@ -7314,16 +7314,16 @@
         <v>2023</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>17</v>
@@ -7358,16 +7358,16 @@
         <v>2023</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>17</v>
@@ -7426,7 +7426,7 @@
         <v>474</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7470,7 +7470,7 @@
         <v>474</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7662,10 +7662,10 @@
         <v>2023</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>268</v>
@@ -7702,10 +7702,10 @@
         <v>2023</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>260</v>
@@ -7874,10 +7874,10 @@
         <v>2023</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>268</v>
@@ -7918,10 +7918,10 @@
         <v>2023</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>268</v>
@@ -7962,16 +7962,16 @@
         <v>2023</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>17</v>
@@ -8004,16 +8004,16 @@
         <v>2023</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>17</v>
@@ -8096,10 +8096,10 @@
         <v>227</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>19</v>
@@ -8140,10 +8140,10 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -8222,16 +8222,16 @@
         <v>2023</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>18</v>
@@ -8266,16 +8266,16 @@
         <v>2023</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>18</v>
@@ -8436,13 +8436,13 @@
         <v>2023</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>271</v>
@@ -8476,13 +8476,13 @@
         <v>2023</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>271</v>
@@ -8524,7 +8524,7 @@
         <v>230</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>279</v>
@@ -8602,10 +8602,10 @@
         <v>2023</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>268</v>
@@ -8692,7 +8692,7 @@
         <v>251</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>274</v>
@@ -8750,7 +8750,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8794,7 +8794,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8820,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>271</v>
@@ -8838,7 +8838,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8864,7 +8864,7 @@
         <v>234</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>271</v>
@@ -8908,7 +8908,7 @@
         <v>219</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>271</v>
@@ -8926,7 +8926,7 @@
         <v>513</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8952,7 +8952,7 @@
         <v>235</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>271</v>
@@ -8996,7 +8996,7 @@
         <v>223</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>271</v>
@@ -9025,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2">
-        <v>4310</v>
+        <v>332</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -9040,7 +9040,7 @@
         <v>253</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>270</v>
@@ -9058,7 +9058,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9069,7 +9069,7 @@
         <v>116</v>
       </c>
       <c r="C160" s="2">
-        <v>4587</v>
+        <v>4310</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>181</v>
@@ -9084,7 +9084,7 @@
         <v>253</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>270</v>
@@ -9102,7 +9102,7 @@
         <v>516</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9113,7 +9113,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="2">
-        <v>332</v>
+        <v>4587</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -9128,7 +9128,7 @@
         <v>253</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>270</v>
@@ -9146,7 +9146,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9342,7 +9342,7 @@
         <v>2023</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>241</v>
@@ -9386,7 +9386,7 @@
         <v>2023</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>241</v>
@@ -9459,13 +9459,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C169" s="2">
-        <v>1064</v>
+        <v>2214</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>181</v>
@@ -9474,10 +9474,10 @@
         <v>2023</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>261</v>
@@ -9486,30 +9486,30 @@
         <v>272</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>361</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C170" s="2">
-        <v>2214</v>
+        <v>1064</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>181</v>
@@ -9518,10 +9518,10 @@
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>261</v>
@@ -9530,30 +9530,30 @@
         <v>272</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>362</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C171" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>181</v>
@@ -9562,31 +9562,31 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>363</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9621,7 +9621,7 @@
         <v>16</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>401</v>
@@ -9635,13 +9635,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -9650,31 +9650,31 @@
         <v>2023</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>364</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9685,7 +9685,7 @@
         <v>126</v>
       </c>
       <c r="C174" s="2">
-        <v>9301</v>
+        <v>7981</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>181</v>
@@ -9700,7 +9700,7 @@
         <v>253</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>270</v>
@@ -9718,7 +9718,7 @@
         <v>473</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9729,7 +9729,7 @@
         <v>126</v>
       </c>
       <c r="C175" s="2">
-        <v>7981</v>
+        <v>9301</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>181</v>
@@ -9744,7 +9744,7 @@
         <v>253</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>270</v>
@@ -9762,7 +9762,7 @@
         <v>473</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9788,7 +9788,7 @@
         <v>253</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>270</v>
@@ -9832,7 +9832,7 @@
         <v>251</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>273</v>
@@ -9876,7 +9876,7 @@
         <v>253</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>277</v>
@@ -9920,7 +9920,7 @@
         <v>251</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>272</v>
@@ -9987,13 +9987,13 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C181" s="2">
-        <v>9521</v>
+        <v>7723</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>181</v>
@@ -10008,36 +10008,36 @@
         <v>256</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>370</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>455</v>
+        <v>401</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>525</v>
+        <v>471</v>
       </c>
       <c r="N181" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C182" s="2">
-        <v>7723</v>
+        <v>9521</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>181</v>
@@ -10052,25 +10052,25 @@
         <v>256</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K182" s="1" t="s">
         <v>371</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>471</v>
+        <v>525</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10134,10 +10134,10 @@
         <v>2023</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>261</v>
@@ -10178,10 +10178,10 @@
         <v>2023</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>261</v>
@@ -10394,10 +10394,10 @@
         <v>2023</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>261</v>
@@ -10438,10 +10438,10 @@
         <v>2023</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>261</v>
@@ -10658,7 +10658,7 @@
         <v>2023</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G196" s="1" t="s">
         <v>241</v>
@@ -10748,10 +10748,10 @@
         <v>210</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>15</v>
@@ -10788,10 +10788,10 @@
         <v>210</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>15</v>
@@ -10862,7 +10862,7 @@
         <v>2023</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>241</v>
@@ -11214,10 +11214,10 @@
         <v>2023</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>261</v>
@@ -11258,10 +11258,10 @@
         <v>2023</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>261</v>
@@ -11337,7 +11337,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="2">
-        <v>8200</v>
+        <v>9441</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -11381,7 +11381,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="2">
-        <v>9441</v>
+        <v>8200</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -11522,10 +11522,10 @@
         <v>2023</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>261</v>
@@ -11566,10 +11566,10 @@
         <v>2023</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>261</v>
@@ -11742,13 +11742,13 @@
         <v>2023</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>277</v>
@@ -11786,13 +11786,13 @@
         <v>2023</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>277</v>
@@ -11854,7 +11854,7 @@
         <v>535</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11880,7 +11880,7 @@
         <v>250</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>277</v>
@@ -11918,13 +11918,13 @@
         <v>2023</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>271</v>
@@ -11942,7 +11942,7 @@
         <v>474</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11960,7 +11960,7 @@
         <v>2023</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>241</v>
@@ -12022,7 +12022,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12066,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12086,7 +12086,7 @@
         <v>2023</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>196</v>
@@ -12110,7 +12110,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12130,10 +12130,10 @@
         <v>2023</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>259</v>
@@ -12218,7 +12218,7 @@
         <v>2023</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>241</v>
@@ -12268,7 +12268,7 @@
         <v>253</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>277</v>
@@ -12308,7 +12308,7 @@
         <v>249</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>277</v>
@@ -12422,7 +12422,7 @@
         <v>2023</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>241</v>
@@ -12488,7 +12488,7 @@
         <v>540</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12552,10 +12552,10 @@
         <v>2023</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>261</v>
@@ -12596,10 +12596,10 @@
         <v>2023</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>261</v>
@@ -12640,10 +12640,10 @@
         <v>2023</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>261</v>
@@ -12684,10 +12684,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12728,10 +12728,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -12816,13 +12816,13 @@
         <v>2023</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>273</v>
@@ -12866,7 +12866,7 @@
         <v>249</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>277</v>
@@ -12988,13 +12988,13 @@
         <v>2023</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>275</v>
@@ -13038,7 +13038,7 @@
         <v>253</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>273</v>
@@ -13076,16 +13076,16 @@
         <v>2023</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>17</v>
@@ -13118,16 +13118,16 @@
         <v>2023</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>17</v>
@@ -13204,10 +13204,10 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>259</v>
@@ -13248,10 +13248,10 @@
         <v>2023</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>259</v>
@@ -13292,16 +13292,16 @@
         <v>2023</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>15</v>
@@ -13332,16 +13332,16 @@
         <v>2023</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>15</v>
@@ -13372,13 +13372,13 @@
         <v>2023</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>277</v>
@@ -13396,7 +13396,7 @@
         <v>513</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:14">

--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -574,24 +574,24 @@
     <t>6.10.2023</t>
   </si>
   <si>
+    <t>9.11.2023</t>
+  </si>
+  <si>
     <t>30.11.2023</t>
   </si>
   <si>
-    <t>9.11.2023</t>
+    <t>9.5.2024</t>
+  </si>
+  <si>
+    <t>21.3.2024</t>
+  </si>
+  <si>
+    <t>22.2.2024</t>
   </si>
   <si>
     <t>2.5.2024</t>
   </si>
   <si>
-    <t>9.5.2024</t>
-  </si>
-  <si>
-    <t>21.3.2024</t>
-  </si>
-  <si>
-    <t>22.2.2024</t>
-  </si>
-  <si>
     <t>19.2.2024</t>
   </si>
   <si>
@@ -628,24 +628,24 @@
     <t>13.4.2024</t>
   </si>
   <si>
+    <t>27.4.2024</t>
+  </si>
+  <si>
     <t>30.3.2024</t>
   </si>
   <si>
-    <t>27.4.2024</t>
+    <t>22.12.2023</t>
   </si>
   <si>
     <t>15.12.2023</t>
   </si>
   <si>
-    <t>22.12.2023</t>
+    <t>3.12.2023</t>
   </si>
   <si>
     <t>9.12.2023</t>
   </si>
   <si>
-    <t>3.12.2023</t>
-  </si>
-  <si>
     <t>6.1.2024</t>
   </si>
   <si>
@@ -655,12 +655,12 @@
     <t>11.10.2023</t>
   </si>
   <si>
+    <t>13.10.2023</t>
+  </si>
+  <si>
     <t>9.10.2023</t>
   </si>
   <si>
-    <t>13.10.2023</t>
-  </si>
-  <si>
     <t>6.3.2024</t>
   </si>
   <si>
@@ -676,12 +676,12 @@
     <t>17.12.2023</t>
   </si>
   <si>
+    <t>8.10.2023</t>
+  </si>
+  <si>
     <t>19.11.2023</t>
   </si>
   <si>
-    <t>8.10.2023</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>29.2.2024</t>
   </si>
   <si>
+    <t>9.3.2024</t>
+  </si>
+  <si>
     <t>16.3.2024</t>
   </si>
   <si>
-    <t>9.3.2024</t>
-  </si>
-  <si>
     <t>24.3.2024</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>3.5.2024</t>
   </si>
   <si>
+    <t>25.11.2023</t>
+  </si>
+  <si>
     <t>5.11.2023</t>
   </si>
   <si>
-    <t>25.11.2023</t>
-  </si>
-  <si>
     <t>5.5.2024</t>
   </si>
   <si>
@@ -730,51 +730,51 @@
     <t>28.2.2024</t>
   </si>
   <si>
+    <t>2.11.2023</t>
+  </si>
+  <si>
+    <t>26.10.2023</t>
+  </si>
+  <si>
+    <t>7.12.2023</t>
+  </si>
+  <si>
     <t>23.11.2023</t>
   </si>
   <si>
-    <t>26.10.2023</t>
-  </si>
-  <si>
-    <t>2.11.2023</t>
-  </si>
-  <si>
     <t>4.1.2024</t>
   </si>
   <si>
-    <t>7.12.2023</t>
-  </si>
-  <si>
     <t>12.10.2023</t>
   </si>
   <si>
+    <t>28.3.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>4.4.2024</t>
+  </si>
+  <si>
+    <t>7.3.2024</t>
+  </si>
+  <si>
     <t>25.4.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>7.3.2024</t>
-  </si>
-  <si>
-    <t>28.3.2024</t>
-  </si>
-  <si>
-    <t>4.4.2024</t>
-  </si>
-  <si>
     <t>15.5.2024</t>
   </si>
   <si>
     <t>3.1.2024</t>
   </si>
   <si>
+    <t>16.5.2024</t>
+  </si>
+  <si>
     <t>13.5.2024</t>
   </si>
   <si>
-    <t>16.5.2024</t>
-  </si>
-  <si>
     <t>14.5.2024</t>
   </si>
   <si>
@@ -898,12 +898,12 @@
     <t>Regionální geografie II</t>
   </si>
   <si>
+    <t>Rozvojové problémy regionů Česka</t>
+  </si>
+  <si>
     <t>Chemické inženýrství</t>
   </si>
   <si>
-    <t>Rozvojové problémy regionů Česka</t>
-  </si>
-  <si>
     <t>Monitor. vybr. prvků atmosf.a hydrosf. I</t>
   </si>
   <si>
@@ -1099,18 +1099,18 @@
     <t>Teorie a koncepty rurální geografie</t>
   </si>
   <si>
+    <t>Odborná angličtina Nmgr.</t>
+  </si>
+  <si>
     <t>Metody a aplikace historické geografie</t>
   </si>
   <si>
-    <t>Odborná angličtina Nmgr.</t>
+    <t>Chemické inženýrství Nmgr.</t>
   </si>
   <si>
     <t>Kulturní krajiny Česka</t>
   </si>
   <si>
-    <t>Chemické inženýrství Nmgr.</t>
-  </si>
-  <si>
     <t>Syntéza, izolace a charakterizace látek</t>
   </si>
   <si>
@@ -1660,33 +1660,33 @@
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
     <t>Šícha Václav, RNDr. Ph.D.</t>
   </si>
   <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
     <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
+    <t>Král Tomáš, Mgr.</t>
+  </si>
+  <si>
     <t>Šmíd Ondřej, Mgr.</t>
   </si>
   <si>
-    <t>Král Tomáš, Mgr.</t>
-  </si>
-  <si>
     <t>Harrandt Václav, Mgr.</t>
   </si>
   <si>
@@ -1732,15 +1732,15 @@
     <t>Krejčí Jan, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Babichev Sergii, prof. CSc., DSc.</t>
+  </si>
+  <si>
+    <t>Škvára Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Beránek Pavel, Ing. Mgr.</t>
   </si>
   <si>
-    <t>Babichev Sergii, prof. CSc., DSc.</t>
-  </si>
-  <si>
-    <t>Škvára Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
     <t>Dočkal Jan, RNDr. Ph.D.</t>
   </si>
   <si>
@@ -1828,13 +1828,13 @@
     <t>Jirsák Jan, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Oravová Lucie, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Barchánková Ivana, Ing. Ph.D.</t>
+  </si>
+  <si>
     <t>Kuráň Pavel, doc. Dr. Ing.</t>
-  </si>
-  <si>
-    <t>Barchánková Ivana, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Oravová Lucie, Ing. Ph.D.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
@@ -2457,7 +2457,7 @@
         <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>263</v>
@@ -2501,7 +2501,7 @@
         <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>264</v>
@@ -2632,10 +2632,10 @@
         <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
@@ -2673,7 +2673,7 @@
         <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>263</v>
@@ -2764,10 +2764,10 @@
         <v>249</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
@@ -2793,7 +2793,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>4310</v>
+        <v>1803</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2837,7 +2837,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>7723</v>
+        <v>2856</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2870,7 +2870,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2881,7 +2881,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>4117</v>
+        <v>7723</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2914,7 +2914,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2925,7 +2925,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>1803</v>
+        <v>429</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2934,10 +2934,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>261</v>
@@ -2958,7 +2958,7 @@
         <v>477</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2969,7 +2969,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>305</v>
+        <v>4117</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>181</v>
@@ -2978,10 +2978,10 @@
         <v>2023</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>261</v>
@@ -3002,7 +3002,7 @@
         <v>477</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -3013,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="2">
-        <v>429</v>
+        <v>305</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>181</v>
@@ -3022,10 +3022,10 @@
         <v>2023</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>261</v>
@@ -3046,7 +3046,7 @@
         <v>477</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -3057,7 +3057,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>2856</v>
+        <v>4310</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3066,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3090,7 +3090,7 @@
         <v>477</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -3116,10 +3116,10 @@
         <v>249</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>14</v>
@@ -3145,7 +3145,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>181</v>
@@ -3154,16 +3154,16 @@
         <v>2023</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -3178,7 +3178,7 @@
         <v>478</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3189,7 +3189,7 @@
         <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>181</v>
@@ -3198,16 +3198,16 @@
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>14</v>
@@ -3222,7 +3222,7 @@
         <v>478</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3242,16 +3242,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -3286,16 +3286,16 @@
         <v>2023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>14</v>
@@ -3336,10 +3336,10 @@
         <v>253</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>14</v>
@@ -3380,10 +3380,10 @@
         <v>253</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>14</v>
@@ -3421,7 +3421,7 @@
         <v>192</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>263</v>
@@ -3453,7 +3453,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>181</v>
@@ -3462,16 +3462,16 @@
         <v>2023</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3497,7 +3497,7 @@
         <v>32</v>
       </c>
       <c r="C30" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>181</v>
@@ -3506,16 +3506,16 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3574,7 +3574,7 @@
         <v>480</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3621,13 +3621,13 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <v>9431</v>
+        <v>6919</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>181</v>
@@ -3636,31 +3636,27 @@
         <v>2023</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>196</v>
+        <v>254</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="L33" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3695,23 +3691,23 @@
         <v>14</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>6919</v>
+        <v>9431</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>181</v>
@@ -3720,27 +3716,31 @@
         <v>2023</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>254</v>
+        <v>196</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>274</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="L35" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="N35" s="1" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3763,7 +3763,7 @@
         <v>184</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>268</v>
@@ -3775,7 +3775,7 @@
         <v>14</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -3846,10 +3846,10 @@
         <v>196</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>14</v>
@@ -3888,10 +3888,10 @@
         <v>196</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>14</v>
@@ -3968,10 +3968,10 @@
         <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -4012,10 +4012,10 @@
         <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -4056,10 +4056,10 @@
         <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>14</v>
@@ -4132,10 +4132,10 @@
         <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -4164,10 +4164,10 @@
         <v>2023</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>266</v>
@@ -4208,10 +4208,10 @@
         <v>2023</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>262</v>
@@ -4255,7 +4255,7 @@
         <v>192</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>268</v>
@@ -4339,7 +4339,7 @@
         <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>264</v>
@@ -4383,7 +4383,7 @@
         <v>184</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>264</v>
@@ -4504,10 +4504,10 @@
         <v>2023</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>261</v>
@@ -4548,10 +4548,10 @@
         <v>2023</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>261</v>
@@ -4632,16 +4632,16 @@
         <v>2023</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
@@ -4676,16 +4676,16 @@
         <v>2023</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
@@ -4711,7 +4711,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="2">
-        <v>429</v>
+        <v>4226</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
@@ -4744,7 +4744,7 @@
         <v>477</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4788,7 +4788,7 @@
         <v>477</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -4832,7 +4832,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4843,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>2856</v>
+        <v>4117</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4876,7 +4876,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4887,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>4117</v>
+        <v>429</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4931,7 +4931,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>4226</v>
+        <v>2856</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4964,7 +4964,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -5112,16 +5112,16 @@
         <v>2023</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -5156,16 +5156,16 @@
         <v>2023</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -5332,10 +5332,10 @@
         <v>2023</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>261</v>
@@ -5347,7 +5347,7 @@
         <v>16</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>401</v>
@@ -5376,10 +5376,10 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
@@ -5391,7 +5391,7 @@
         <v>16</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>401</v>
@@ -5420,10 +5420,10 @@
         <v>2023</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>261</v>
@@ -5435,7 +5435,7 @@
         <v>16</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>401</v>
@@ -5510,10 +5510,10 @@
         <v>208</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>17</v>
@@ -5552,10 +5552,10 @@
         <v>209</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -5767,7 +5767,7 @@
         <v>184</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>263</v>
@@ -5811,7 +5811,7 @@
         <v>184</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>261</v>
@@ -5899,7 +5899,7 @@
         <v>192</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>262</v>
@@ -5943,7 +5943,7 @@
         <v>184</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>259</v>
@@ -5985,13 +5985,13 @@
         <v>213</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>17</v>
@@ -6026,10 +6026,10 @@
         <v>2023</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>260</v>
@@ -6070,16 +6070,16 @@
         <v>2023</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>17</v>
@@ -6114,10 +6114,10 @@
         <v>2023</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>266</v>
@@ -6161,7 +6161,7 @@
         <v>184</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>265</v>
@@ -6189,7 +6189,7 @@
         <v>67</v>
       </c>
       <c r="C93" s="2">
-        <v>6973</v>
+        <v>3416</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>181</v>
@@ -6233,7 +6233,7 @@
         <v>67</v>
       </c>
       <c r="C94" s="2">
-        <v>3416</v>
+        <v>6259</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>181</v>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
       <c r="C95" s="2">
-        <v>6259</v>
+        <v>6973</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>181</v>
@@ -6333,7 +6333,7 @@
         <v>216</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>264</v>
@@ -6354,7 +6354,7 @@
         <v>492</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6374,10 +6374,10 @@
         <v>2023</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>263</v>
@@ -6398,7 +6398,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6421,7 +6421,7 @@
         <v>192</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>267</v>
@@ -6530,7 +6530,7 @@
         <v>492</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6553,7 +6553,7 @@
         <v>192</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>263</v>
@@ -6982,10 +6982,10 @@
         <v>2023</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>268</v>
@@ -7022,10 +7022,10 @@
         <v>2023</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>268</v>
@@ -7230,10 +7230,10 @@
         <v>2023</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>264</v>
@@ -7272,10 +7272,10 @@
         <v>2023</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>263</v>
@@ -7314,16 +7314,16 @@
         <v>2023</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>17</v>
@@ -7358,16 +7358,16 @@
         <v>2023</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>17</v>
@@ -7662,10 +7662,10 @@
         <v>2023</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>268</v>
@@ -7702,10 +7702,10 @@
         <v>2023</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>260</v>
@@ -7874,10 +7874,10 @@
         <v>2023</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>268</v>
@@ -7918,10 +7918,10 @@
         <v>2023</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>268</v>
@@ -7968,10 +7968,10 @@
         <v>209</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>17</v>
@@ -8010,10 +8010,10 @@
         <v>208</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>17</v>
@@ -8096,10 +8096,10 @@
         <v>227</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>19</v>
@@ -8140,10 +8140,10 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>19</v>
@@ -8436,10 +8436,10 @@
         <v>2023</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>264</v>
@@ -8476,10 +8476,10 @@
         <v>2023</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>264</v>
@@ -8602,10 +8602,10 @@
         <v>2023</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>268</v>
@@ -8666,7 +8666,7 @@
         <v>510</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8689,7 +8689,7 @@
         <v>192</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>263</v>
@@ -8750,7 +8750,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8776,7 +8776,7 @@
         <v>232</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>271</v>
@@ -8794,7 +8794,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8820,7 +8820,7 @@
         <v>233</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>271</v>
@@ -8838,7 +8838,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8926,7 +8926,7 @@
         <v>513</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -9025,7 +9025,7 @@
         <v>116</v>
       </c>
       <c r="C159" s="2">
-        <v>332</v>
+        <v>4310</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>181</v>
@@ -9058,7 +9058,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>593</v>
+        <v>552</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9069,7 +9069,7 @@
         <v>116</v>
       </c>
       <c r="C160" s="2">
-        <v>4310</v>
+        <v>4587</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>181</v>
@@ -9102,7 +9102,7 @@
         <v>516</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>548</v>
+        <v>589</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9113,7 +9113,7 @@
         <v>116</v>
       </c>
       <c r="C161" s="2">
-        <v>4587</v>
+        <v>332</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>181</v>
@@ -9146,7 +9146,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9345,7 +9345,7 @@
         <v>184</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>262</v>
@@ -9389,7 +9389,7 @@
         <v>184</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>260</v>
@@ -9459,13 +9459,13 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C169" s="2">
-        <v>2214</v>
+        <v>1064</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>181</v>
@@ -9474,10 +9474,10 @@
         <v>2023</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>261</v>
@@ -9486,30 +9486,30 @@
         <v>272</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>361</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>478</v>
+        <v>522</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C170" s="2">
-        <v>1064</v>
+        <v>2214</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>181</v>
@@ -9518,10 +9518,10 @@
         <v>2023</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>261</v>
@@ -9530,30 +9530,30 @@
         <v>272</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>362</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>522</v>
+        <v>478</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C171" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>181</v>
@@ -9562,31 +9562,31 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>363</v>
       </c>
       <c r="L171" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="172" spans="1:14">
@@ -9606,22 +9606,22 @@
         <v>2023</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>401</v>
@@ -9635,13 +9635,13 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -9650,31 +9650,31 @@
         <v>2023</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>364</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9829,7 +9829,7 @@
         <v>192</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>263</v>
@@ -9917,7 +9917,7 @@
         <v>192</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>264</v>
@@ -9958,10 +9958,10 @@
         <v>2023</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>259</v>
@@ -10661,7 +10661,7 @@
         <v>184</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>268</v>
@@ -10698,10 +10698,10 @@
         <v>2023</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>261</v>
@@ -10865,7 +10865,7 @@
         <v>184</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>267</v>
@@ -10953,7 +10953,7 @@
         <v>192</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>260</v>
@@ -11018,7 +11018,7 @@
         <v>510</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11170,10 +11170,10 @@
         <v>2023</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>261</v>
@@ -11214,10 +11214,10 @@
         <v>2023</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>261</v>
@@ -11293,7 +11293,7 @@
         <v>150</v>
       </c>
       <c r="C211" s="2">
-        <v>7015</v>
+        <v>8200</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>181</v>
@@ -11305,7 +11305,7 @@
         <v>243</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>267</v>
@@ -11349,7 +11349,7 @@
         <v>243</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>267</v>
@@ -11381,7 +11381,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="2">
-        <v>8200</v>
+        <v>7015</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -11393,7 +11393,7 @@
         <v>243</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>267</v>
@@ -11478,10 +11478,10 @@
         <v>2023</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>261</v>
@@ -11522,10 +11522,10 @@
         <v>2023</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>261</v>
@@ -11727,7 +11727,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>153</v>
@@ -11754,7 +11754,7 @@
         <v>277</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>390</v>
@@ -11771,7 +11771,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>153</v>
@@ -11798,7 +11798,7 @@
         <v>277</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>390</v>
@@ -11854,7 +11854,7 @@
         <v>535</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11921,7 +11921,7 @@
         <v>185</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>264</v>
@@ -11963,7 +11963,7 @@
         <v>184</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>266</v>
@@ -12022,7 +12022,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12066,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12110,7 +12110,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12130,16 +12130,16 @@
         <v>2023</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>17</v>
@@ -12174,16 +12174,16 @@
         <v>2023</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>17</v>
@@ -12221,7 +12221,7 @@
         <v>184</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>261</v>
@@ -12345,13 +12345,13 @@
         <v>192</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>17</v>
@@ -12385,13 +12385,13 @@
         <v>192</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>17</v>
@@ -12425,7 +12425,7 @@
         <v>184</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>265</v>
@@ -12508,10 +12508,10 @@
         <v>2023</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>261</v>
@@ -12552,10 +12552,10 @@
         <v>2023</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>261</v>
@@ -12640,10 +12640,10 @@
         <v>2023</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>261</v>
@@ -12684,10 +12684,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12728,10 +12728,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -12819,7 +12819,7 @@
         <v>184</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>263</v>
@@ -12991,7 +12991,7 @@
         <v>184</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>263</v>
@@ -13079,7 +13079,7 @@
         <v>184</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>265</v>
@@ -13121,7 +13121,7 @@
         <v>184</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>259</v>
@@ -13160,7 +13160,7 @@
         <v>2023</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>196</v>
@@ -13204,10 +13204,10 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>259</v>
@@ -13248,10 +13248,10 @@
         <v>2023</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>259</v>
@@ -13292,16 +13292,16 @@
         <v>2023</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>15</v>
@@ -13332,16 +13332,16 @@
         <v>2023</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>15</v>
@@ -13396,7 +13396,7 @@
         <v>513</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:14">

--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3028" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3035" uniqueCount="612">
   <si>
     <t>katedra</t>
   </si>
@@ -568,27 +568,27 @@
     <t>4.10.2023</t>
   </si>
   <si>
+    <t>6.10.2023</t>
+  </si>
+  <si>
     <t>5.10.2023</t>
   </si>
   <si>
-    <t>6.10.2023</t>
-  </si>
-  <si>
     <t>9.11.2023</t>
   </si>
   <si>
     <t>30.11.2023</t>
   </si>
   <si>
+    <t>22.2.2024</t>
+  </si>
+  <si>
     <t>9.5.2024</t>
   </si>
   <si>
     <t>21.3.2024</t>
   </si>
   <si>
-    <t>22.2.2024</t>
-  </si>
-  <si>
     <t>2.5.2024</t>
   </si>
   <si>
@@ -628,24 +628,24 @@
     <t>13.4.2024</t>
   </si>
   <si>
+    <t>30.3.2024</t>
+  </si>
+  <si>
     <t>27.4.2024</t>
   </si>
   <si>
-    <t>30.3.2024</t>
-  </si>
-  <si>
     <t>22.12.2023</t>
   </si>
   <si>
     <t>15.12.2023</t>
   </si>
   <si>
+    <t>9.12.2023</t>
+  </si>
+  <si>
     <t>3.12.2023</t>
   </si>
   <si>
-    <t>9.12.2023</t>
-  </si>
-  <si>
     <t>6.1.2024</t>
   </si>
   <si>
@@ -673,15 +673,15 @@
     <t>14.10.2023</t>
   </si>
   <si>
+    <t>19.11.2023</t>
+  </si>
+  <si>
+    <t>8.10.2023</t>
+  </si>
+  <si>
     <t>17.12.2023</t>
   </si>
   <si>
-    <t>8.10.2023</t>
-  </si>
-  <si>
-    <t>19.11.2023</t>
-  </si>
-  <si>
     <t>11.5.2024</t>
   </si>
   <si>
@@ -736,30 +736,30 @@
     <t>26.10.2023</t>
   </si>
   <si>
+    <t>23.11.2023</t>
+  </si>
+  <si>
+    <t>4.1.2024</t>
+  </si>
+  <si>
     <t>7.12.2023</t>
   </si>
   <si>
-    <t>23.11.2023</t>
-  </si>
-  <si>
-    <t>4.1.2024</t>
-  </si>
-  <si>
     <t>12.10.2023</t>
   </si>
   <si>
+    <t>4.4.2024</t>
+  </si>
+  <si>
+    <t>18.4.2024</t>
+  </si>
+  <si>
+    <t>7.3.2024</t>
+  </si>
+  <si>
     <t>28.3.2024</t>
   </si>
   <si>
-    <t>18.4.2024</t>
-  </si>
-  <si>
-    <t>4.4.2024</t>
-  </si>
-  <si>
-    <t>7.3.2024</t>
-  </si>
-  <si>
     <t>25.4.2024</t>
   </si>
   <si>
@@ -805,24 +805,24 @@
     <t>11:00</t>
   </si>
   <si>
+    <t>14:00</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>14:00</t>
-  </si>
-  <si>
     <t>15:00</t>
   </si>
   <si>
     <t>17:00</t>
   </si>
   <si>
+    <t>09:00</t>
+  </si>
+  <si>
     <t>08:00</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
     <t>18:00</t>
   </si>
   <si>
@@ -841,12 +841,12 @@
     <t>10:50</t>
   </si>
   <si>
+    <t>16:50</t>
+  </si>
+  <si>
     <t>12:50</t>
   </si>
   <si>
-    <t>16:50</t>
-  </si>
-  <si>
     <t>15:50</t>
   </si>
   <si>
@@ -1651,40 +1651,43 @@
     <t>Greguš Viktor, Ing.</t>
   </si>
   <si>
+    <t>Dědičová Šárka, Mgr.</t>
+  </si>
+  <si>
     <t>Škvorová Magda, Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Dědičová Šárka, Mgr.</t>
-  </si>
-  <si>
     <t>Bartůněk Martin, Mgr.</t>
   </si>
   <si>
+    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Šícha Václav, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
+  </si>
+  <si>
+    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
+  </si>
+  <si>
     <t>Havlica Jaromír, doc. Ing. Ph.D.</t>
   </si>
   <si>
-    <t>Nguyen Thi Thu Huong, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Vrtoch Ľuboš, RNDr. PhD., Ph.D.</t>
-  </si>
-  <si>
-    <t>Nezbeda Ivo, prof. RNDr. DrSc.</t>
-  </si>
-  <si>
-    <t>Šícha Václav, RNDr. Ph.D.</t>
+    <t>Dužeková Radka, Mgr.</t>
   </si>
   <si>
     <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
-    <t>Dužeková Radka, Mgr.</t>
+    <t>Šmíd Ondřej, Mgr.</t>
   </si>
   <si>
     <t>Král Tomáš, Mgr.</t>
   </si>
   <si>
-    <t>Šmíd Ondřej, Mgr.</t>
+    <t>Martínek Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Harrandt Václav, Mgr.</t>
@@ -1828,13 +1831,13 @@
     <t>Jirsák Jan, doc. RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Barchánková Ivana, Ing. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kuráň Pavel, doc. Dr. Ing.</t>
+  </si>
+  <si>
     <t>Oravová Lucie, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Barchánková Ivana, Ing. Ph.D.</t>
-  </si>
-  <si>
-    <t>Kuráň Pavel, doc. Dr. Ing.</t>
   </si>
   <si>
     <t>Janoš Pavel, prof. Ing. CSc.</t>
@@ -2445,7 +2448,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="2">
-        <v>2856</v>
+        <v>9049</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>181</v>
@@ -2457,13 +2460,13 @@
         <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>263</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -2489,7 +2492,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2">
-        <v>9049</v>
+        <v>2856</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>181</v>
@@ -2501,13 +2504,13 @@
         <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>264</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>16</v>
@@ -2632,10 +2635,10 @@
         <v>249</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>16</v>
@@ -2673,10 +2676,10 @@
         <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>273</v>
@@ -2699,13 +2702,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2">
-        <v>8819</v>
+        <v>9301</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>181</v>
@@ -2714,42 +2717,42 @@
         <v>2023</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>273</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>9301</v>
+        <v>8819</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>181</v>
@@ -2758,31 +2761,31 @@
         <v>2023</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2793,7 +2796,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>1803</v>
+        <v>429</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>181</v>
@@ -2837,7 +2840,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="2">
-        <v>2856</v>
+        <v>7723</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>181</v>
@@ -2870,7 +2873,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2881,7 +2884,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2">
-        <v>7723</v>
+        <v>2856</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>181</v>
@@ -2890,10 +2893,10 @@
         <v>2023</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>261</v>
@@ -2914,7 +2917,7 @@
         <v>477</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2925,7 +2928,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <v>429</v>
+        <v>4310</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>181</v>
@@ -2934,10 +2937,10 @@
         <v>2023</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>261</v>
@@ -3022,10 +3025,10 @@
         <v>2023</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>261</v>
@@ -3057,7 +3060,7 @@
         <v>28</v>
       </c>
       <c r="C20" s="2">
-        <v>4310</v>
+        <v>1803</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>181</v>
@@ -3066,10 +3069,10 @@
         <v>2023</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>261</v>
@@ -3101,7 +3104,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>181</v>
@@ -3110,16 +3113,16 @@
         <v>2023</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>14</v>
@@ -3145,7 +3148,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>181</v>
@@ -3154,16 +3157,16 @@
         <v>2023</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>14</v>
@@ -3198,13 +3201,13 @@
         <v>2023</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>275</v>
@@ -3222,7 +3225,7 @@
         <v>478</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -3242,16 +3245,16 @@
         <v>2023</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>14</v>
@@ -3266,7 +3269,7 @@
         <v>478</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -3286,13 +3289,13 @@
         <v>2023</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>276</v>
@@ -3310,7 +3313,7 @@
         <v>478</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -3354,7 +3357,7 @@
         <v>479</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3380,7 +3383,7 @@
         <v>253</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>273</v>
@@ -3398,7 +3401,7 @@
         <v>479</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3424,7 +3427,7 @@
         <v>252</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>273</v>
@@ -3442,7 +3445,7 @@
         <v>474</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3453,7 +3456,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>181</v>
@@ -3462,16 +3465,16 @@
         <v>2023</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>14</v>
@@ -3506,16 +3509,16 @@
         <v>2023</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>14</v>
@@ -3530,7 +3533,7 @@
         <v>480</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3541,7 +3544,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>181</v>
@@ -3556,10 +3559,10 @@
         <v>254</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>14</v>
@@ -3594,7 +3597,7 @@
         <v>2023</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>196</v>
@@ -3617,7 +3620,9 @@
       <c r="M32" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1" t="s">
@@ -3627,7 +3632,7 @@
         <v>34</v>
       </c>
       <c r="C33" s="2">
-        <v>6919</v>
+        <v>9265</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>181</v>
@@ -3642,10 +3647,10 @@
         <v>254</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>14</v>
@@ -3656,7 +3661,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3667,7 +3672,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>9265</v>
+        <v>6919</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>181</v>
@@ -3682,10 +3687,10 @@
         <v>254</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>14</v>
@@ -3696,18 +3701,18 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>9431</v>
+        <v>6919</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>181</v>
@@ -3719,39 +3724,35 @@
         <v>185</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>267</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="N35" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>6919</v>
+        <v>9431</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>181</v>
@@ -3763,24 +3764,28 @@
         <v>184</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>268</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+        <v>295</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>471</v>
+      </c>
       <c r="N36" s="1" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3809,7 +3814,7 @@
         <v>265</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>14</v>
@@ -3820,7 +3825,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3840,7 +3845,7 @@
         <v>2023</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>196</v>
@@ -3863,7 +3868,9 @@
       <c r="M38" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1" t="s">
@@ -3882,13 +3889,13 @@
         <v>2023</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>272</v>
@@ -3905,7 +3912,9 @@
       <c r="M39" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1" t="s">
@@ -3943,7 +3952,9 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1" t="s">
@@ -3968,10 +3979,10 @@
         <v>249</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>14</v>
@@ -3986,7 +3997,7 @@
         <v>482</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -4012,10 +4023,10 @@
         <v>249</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>14</v>
@@ -4030,7 +4041,7 @@
         <v>482</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -4056,10 +4067,10 @@
         <v>198</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>14</v>
@@ -4069,7 +4080,9 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1" t="s">
@@ -4094,10 +4107,10 @@
         <v>198</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>14</v>
@@ -4107,7 +4120,9 @@
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="N44" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1" t="s">
@@ -4132,10 +4147,10 @@
         <v>198</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>14</v>
@@ -4145,7 +4160,9 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
+      <c r="N45" s="1" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1" t="s">
@@ -4164,16 +4181,16 @@
         <v>2023</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>14</v>
@@ -4188,7 +4205,7 @@
         <v>480</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -4208,16 +4225,16 @@
         <v>2023</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>14</v>
@@ -4232,7 +4249,7 @@
         <v>480</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -4258,7 +4275,7 @@
         <v>252</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>278</v>
@@ -4302,7 +4319,7 @@
         <v>250</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>274</v>
@@ -4316,7 +4333,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4327,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="C50" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>181</v>
@@ -4336,13 +4353,13 @@
         <v>2023</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>277</v>
@@ -4371,7 +4388,7 @@
         <v>43</v>
       </c>
       <c r="C51" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>181</v>
@@ -4380,13 +4397,13 @@
         <v>2023</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>277</v>
@@ -4424,10 +4441,10 @@
         <v>2023</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>261</v>
@@ -4464,10 +4481,10 @@
         <v>2023</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>261</v>
@@ -4577,13 +4594,13 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C56" s="2">
-        <v>3164</v>
+        <v>2856</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>181</v>
@@ -4598,21 +4615,25 @@
         <v>196</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
+        <v>285</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>474</v>
+      </c>
       <c r="N56" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -4632,16 +4653,16 @@
         <v>2023</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
@@ -4656,18 +4677,18 @@
         <v>474</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C58" s="2">
-        <v>2856</v>
+        <v>3164</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>181</v>
@@ -4676,31 +4697,27 @@
         <v>2023</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
       <c r="N58" s="1" t="s">
-        <v>545</v>
+        <v>562</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -4711,7 +4728,7 @@
         <v>47</v>
       </c>
       <c r="C59" s="2">
-        <v>4226</v>
+        <v>429</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>181</v>
@@ -4726,10 +4743,10 @@
         <v>198</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
@@ -4744,7 +4761,7 @@
         <v>477</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -4755,7 +4772,7 @@
         <v>47</v>
       </c>
       <c r="C60" s="2">
-        <v>4310</v>
+        <v>1803</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>181</v>
@@ -4770,10 +4787,10 @@
         <v>198</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>16</v>
@@ -4799,7 +4816,7 @@
         <v>47</v>
       </c>
       <c r="C61" s="2">
-        <v>1803</v>
+        <v>2856</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>181</v>
@@ -4814,10 +4831,10 @@
         <v>198</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>16</v>
@@ -4832,7 +4849,7 @@
         <v>477</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -4843,7 +4860,7 @@
         <v>47</v>
       </c>
       <c r="C62" s="2">
-        <v>4117</v>
+        <v>4226</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>181</v>
@@ -4858,10 +4875,10 @@
         <v>198</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>16</v>
@@ -4876,7 +4893,7 @@
         <v>477</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -4887,7 +4904,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2">
-        <v>429</v>
+        <v>4310</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>181</v>
@@ -4902,10 +4919,10 @@
         <v>198</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>16</v>
@@ -4931,7 +4948,7 @@
         <v>47</v>
       </c>
       <c r="C64" s="2">
-        <v>2856</v>
+        <v>4117</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>181</v>
@@ -4946,10 +4963,10 @@
         <v>198</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>16</v>
@@ -4964,7 +4981,7 @@
         <v>477</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -4990,10 +5007,10 @@
         <v>199</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>17</v>
@@ -5008,7 +5025,7 @@
         <v>484</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -5034,10 +5051,10 @@
         <v>200</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>17</v>
@@ -5052,7 +5069,7 @@
         <v>485</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -5092,7 +5109,7 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
       <c r="N67" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -5121,7 +5138,7 @@
         <v>261</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>16</v>
@@ -5136,7 +5153,7 @@
         <v>474</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -5162,10 +5179,10 @@
         <v>202</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -5180,7 +5197,7 @@
         <v>474</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -5206,10 +5223,10 @@
         <v>203</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>17</v>
@@ -5224,7 +5241,7 @@
         <v>486</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -5250,10 +5267,10 @@
         <v>204</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>17</v>
@@ -5268,7 +5285,7 @@
         <v>487</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -5294,10 +5311,10 @@
         <v>205</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>17</v>
@@ -5312,7 +5329,7 @@
         <v>487</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -5341,7 +5358,7 @@
         <v>261</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>16</v>
@@ -5356,7 +5373,7 @@
         <v>471</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -5376,16 +5393,16 @@
         <v>2023</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>261</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
@@ -5400,7 +5417,7 @@
         <v>471</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -5420,16 +5437,16 @@
         <v>2023</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>261</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
@@ -5444,7 +5461,7 @@
         <v>471</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -5473,7 +5490,7 @@
         <v>262</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>16</v>
@@ -5484,7 +5501,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -5513,7 +5530,7 @@
         <v>263</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>17</v>
@@ -5555,7 +5572,7 @@
         <v>264</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>17</v>
@@ -5594,10 +5611,10 @@
         <v>210</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>17</v>
@@ -5612,7 +5629,7 @@
         <v>489</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -5638,7 +5655,7 @@
         <v>211</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>279</v>
@@ -5656,7 +5673,7 @@
         <v>490</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -5676,13 +5693,13 @@
         <v>2023</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>273</v>
@@ -5700,7 +5717,7 @@
         <v>484</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5720,13 +5737,13 @@
         <v>2023</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>273</v>
@@ -5744,7 +5761,7 @@
         <v>484</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -5764,16 +5781,16 @@
         <v>2023</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>17</v>
@@ -5788,7 +5805,7 @@
         <v>485</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -5808,10 +5825,10 @@
         <v>2023</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>261</v>
@@ -5832,7 +5849,7 @@
         <v>485</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -5858,7 +5875,7 @@
         <v>253</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>277</v>
@@ -5876,7 +5893,7 @@
         <v>486</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5920,7 +5937,7 @@
         <v>487</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -5940,10 +5957,10 @@
         <v>2023</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>259</v>
@@ -6006,7 +6023,7 @@
         <v>489</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -6026,7 +6043,7 @@
         <v>2023</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>207</v>
@@ -6050,7 +6067,7 @@
         <v>489</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -6076,7 +6093,7 @@
         <v>256</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>273</v>
@@ -6094,7 +6111,7 @@
         <v>489</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -6114,7 +6131,7 @@
         <v>2023</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>251</v>
@@ -6138,7 +6155,7 @@
         <v>490</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -6158,16 +6175,16 @@
         <v>2023</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>265</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>18</v>
@@ -6178,7 +6195,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -6207,7 +6224,7 @@
         <v>260</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>18</v>
@@ -6222,7 +6239,7 @@
         <v>491</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -6251,7 +6268,7 @@
         <v>260</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>18</v>
@@ -6266,7 +6283,7 @@
         <v>491</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -6295,7 +6312,7 @@
         <v>260</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>18</v>
@@ -6310,7 +6327,7 @@
         <v>491</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -6333,10 +6350,10 @@
         <v>216</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>272</v>
@@ -6354,7 +6371,7 @@
         <v>492</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -6374,13 +6391,13 @@
         <v>2023</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>251</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>273</v>
@@ -6398,7 +6415,7 @@
         <v>493</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -6424,7 +6441,7 @@
         <v>252</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>278</v>
@@ -6442,7 +6459,7 @@
         <v>494</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -6471,7 +6488,7 @@
         <v>259</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>15</v>
@@ -6486,7 +6503,7 @@
         <v>495</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -6530,7 +6547,7 @@
         <v>492</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -6556,7 +6573,7 @@
         <v>252</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>274</v>
@@ -6574,7 +6591,7 @@
         <v>496</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -6600,7 +6617,7 @@
         <v>250</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>278</v>
@@ -6614,7 +6631,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -6640,7 +6657,7 @@
         <v>250</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>278</v>
@@ -6654,7 +6671,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -6698,7 +6715,7 @@
         <v>489</v>
       </c>
       <c r="N104" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -6724,10 +6741,10 @@
         <v>219</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>20</v>
@@ -6742,7 +6759,7 @@
         <v>497</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -6768,10 +6785,10 @@
         <v>220</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>20</v>
@@ -6786,7 +6803,7 @@
         <v>497</v>
       </c>
       <c r="N106" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -6812,10 +6829,10 @@
         <v>221</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>20</v>
@@ -6830,7 +6847,7 @@
         <v>497</v>
       </c>
       <c r="N107" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -6856,10 +6873,10 @@
         <v>210</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>17</v>
@@ -6874,7 +6891,7 @@
         <v>489</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -6900,10 +6917,10 @@
         <v>199</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>17</v>
@@ -6918,7 +6935,7 @@
         <v>498</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -6944,10 +6961,10 @@
         <v>200</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>17</v>
@@ -6962,7 +6979,7 @@
         <v>499</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -6982,13 +6999,13 @@
         <v>2023</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>272</v>
@@ -7002,7 +7019,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
       <c r="N111" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -7022,13 +7039,13 @@
         <v>2023</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>272</v>
@@ -7042,7 +7059,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
       <c r="N112" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -7068,10 +7085,10 @@
         <v>211</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>17</v>
@@ -7082,7 +7099,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -7108,10 +7125,10 @@
         <v>223</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>17</v>
@@ -7122,7 +7139,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -7148,7 +7165,7 @@
         <v>224</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>271</v>
@@ -7192,7 +7209,7 @@
         <v>224</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>271</v>
@@ -7210,7 +7227,7 @@
         <v>471</v>
       </c>
       <c r="N116" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -7239,7 +7256,7 @@
         <v>264</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>17</v>
@@ -7281,7 +7298,7 @@
         <v>263</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>17</v>
@@ -7314,16 +7331,16 @@
         <v>2023</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>17</v>
@@ -7338,7 +7355,7 @@
         <v>501</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -7358,16 +7375,16 @@
         <v>2023</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>17</v>
@@ -7382,7 +7399,7 @@
         <v>501</v>
       </c>
       <c r="N120" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -7402,13 +7419,13 @@
         <v>2023</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>276</v>
@@ -7426,7 +7443,7 @@
         <v>474</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -7446,13 +7463,13 @@
         <v>2023</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>275</v>
@@ -7470,7 +7487,7 @@
         <v>474</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -7496,10 +7513,10 @@
         <v>222</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>17</v>
@@ -7514,7 +7531,7 @@
         <v>502</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -7540,10 +7557,10 @@
         <v>225</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>17</v>
@@ -7558,7 +7575,7 @@
         <v>502</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -7584,7 +7601,7 @@
         <v>203</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>270</v>
@@ -7598,7 +7615,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -7642,7 +7659,7 @@
         <v>503</v>
       </c>
       <c r="N126" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -7662,13 +7679,13 @@
         <v>2023</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>272</v>
@@ -7682,7 +7699,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -7702,10 +7719,10 @@
         <v>2023</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>260</v>
@@ -7722,7 +7739,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -7748,10 +7765,10 @@
         <v>199</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>17</v>
@@ -7766,7 +7783,7 @@
         <v>484</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -7792,10 +7809,10 @@
         <v>200</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>17</v>
@@ -7810,7 +7827,7 @@
         <v>485</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -7836,10 +7853,10 @@
         <v>203</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>17</v>
@@ -7854,7 +7871,7 @@
         <v>486</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -7880,10 +7897,10 @@
         <v>205</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>17</v>
@@ -7898,7 +7915,7 @@
         <v>487</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -7924,10 +7941,10 @@
         <v>204</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>17</v>
@@ -7942,7 +7959,7 @@
         <v>487</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -7971,7 +7988,7 @@
         <v>264</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>17</v>
@@ -8013,7 +8030,7 @@
         <v>263</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>17</v>
@@ -8052,10 +8069,10 @@
         <v>210</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>17</v>
@@ -8070,7 +8087,7 @@
         <v>504</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -8096,7 +8113,7 @@
         <v>227</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>279</v>
@@ -8114,7 +8131,7 @@
         <v>505</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -8140,7 +8157,7 @@
         <v>228</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>270</v>
@@ -8158,7 +8175,7 @@
         <v>505</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -8184,7 +8201,7 @@
         <v>229</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>274</v>
@@ -8202,7 +8219,7 @@
         <v>506</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -8222,16 +8239,16 @@
         <v>2023</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>18</v>
@@ -8246,7 +8263,7 @@
         <v>507</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -8266,16 +8283,16 @@
         <v>2023</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>18</v>
@@ -8290,7 +8307,7 @@
         <v>507</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -8316,10 +8333,10 @@
         <v>202</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>15</v>
@@ -8334,7 +8351,7 @@
         <v>494</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -8360,10 +8377,10 @@
         <v>198</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>15</v>
@@ -8378,7 +8395,7 @@
         <v>494</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -8404,10 +8421,10 @@
         <v>223</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>15</v>
@@ -8418,7 +8435,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
       <c r="N144" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="145" spans="1:14">
@@ -8436,13 +8453,13 @@
         <v>2023</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>271</v>
@@ -8476,13 +8493,13 @@
         <v>2023</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>271</v>
@@ -8524,7 +8541,7 @@
         <v>230</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>279</v>
@@ -8538,7 +8555,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
       <c r="N147" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -8564,10 +8581,10 @@
         <v>211</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>17</v>
@@ -8582,7 +8599,7 @@
         <v>509</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="149" spans="1:14">
@@ -8602,16 +8619,16 @@
         <v>2023</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>17</v>
@@ -8622,7 +8639,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
       <c r="N149" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="150" spans="1:14">
@@ -8648,10 +8665,10 @@
         <v>231</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>16</v>
@@ -8666,7 +8683,7 @@
         <v>510</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="151" spans="1:14">
@@ -8692,7 +8709,7 @@
         <v>252</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>274</v>
@@ -8710,7 +8727,7 @@
         <v>511</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:14">
@@ -8750,7 +8767,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
       <c r="N152" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8776,7 +8793,7 @@
         <v>232</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>271</v>
@@ -8794,7 +8811,7 @@
         <v>512</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="154" spans="1:14">
@@ -8838,7 +8855,7 @@
         <v>512</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="155" spans="1:14">
@@ -8864,7 +8881,7 @@
         <v>234</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>271</v>
@@ -8882,7 +8899,7 @@
         <v>493</v>
       </c>
       <c r="N155" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8902,13 +8919,13 @@
         <v>2023</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>271</v>
@@ -8926,7 +8943,7 @@
         <v>513</v>
       </c>
       <c r="N156" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:14">
@@ -8952,7 +8969,7 @@
         <v>235</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>271</v>
@@ -8970,7 +8987,7 @@
         <v>514</v>
       </c>
       <c r="N157" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="158" spans="1:14">
@@ -8996,7 +9013,7 @@
         <v>223</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>271</v>
@@ -9014,7 +9031,7 @@
         <v>515</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="159" spans="1:14">
@@ -9040,7 +9057,7 @@
         <v>253</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>270</v>
@@ -9058,7 +9075,7 @@
         <v>516</v>
       </c>
       <c r="N159" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -9084,7 +9101,7 @@
         <v>253</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>270</v>
@@ -9102,7 +9119,7 @@
         <v>516</v>
       </c>
       <c r="N160" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -9128,7 +9145,7 @@
         <v>253</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>270</v>
@@ -9146,7 +9163,7 @@
         <v>516</v>
       </c>
       <c r="N161" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="1:14">
@@ -9172,7 +9189,7 @@
         <v>249</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>273</v>
@@ -9190,7 +9207,7 @@
         <v>517</v>
       </c>
       <c r="N162" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="163" spans="1:14">
@@ -9278,7 +9295,7 @@
         <v>518</v>
       </c>
       <c r="N164" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9322,7 +9339,7 @@
         <v>519</v>
       </c>
       <c r="N165" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9342,10 +9359,10 @@
         <v>2023</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>262</v>
@@ -9386,16 +9403,16 @@
         <v>2023</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>14</v>
@@ -9410,7 +9427,7 @@
         <v>521</v>
       </c>
       <c r="N167" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="168" spans="1:14">
@@ -9436,7 +9453,7 @@
         <v>254</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I168" s="1" t="s">
         <v>278</v>
@@ -9498,7 +9515,7 @@
         <v>522</v>
       </c>
       <c r="N169" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -9542,7 +9559,7 @@
         <v>478</v>
       </c>
       <c r="N170" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" spans="1:14">
@@ -9562,16 +9579,16 @@
         <v>2023</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I171" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>16</v>
@@ -9586,18 +9603,18 @@
         <v>471</v>
       </c>
       <c r="N171" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C172" s="2">
-        <v>9431</v>
+        <v>9460</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>181</v>
@@ -9606,42 +9623,42 @@
         <v>2023</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="N172" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2">
-        <v>9460</v>
+        <v>9431</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>181</v>
@@ -9650,31 +9667,31 @@
         <v>2023</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="N173" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9685,7 +9702,7 @@
         <v>126</v>
       </c>
       <c r="C174" s="2">
-        <v>7981</v>
+        <v>9301</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>181</v>
@@ -9700,7 +9717,7 @@
         <v>253</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I174" s="1" t="s">
         <v>270</v>
@@ -9718,7 +9735,7 @@
         <v>473</v>
       </c>
       <c r="N174" s="1" t="s">
-        <v>598</v>
+        <v>544</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -9729,7 +9746,7 @@
         <v>126</v>
       </c>
       <c r="C175" s="2">
-        <v>9301</v>
+        <v>7981</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>181</v>
@@ -9744,7 +9761,7 @@
         <v>253</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>270</v>
@@ -9762,7 +9779,7 @@
         <v>473</v>
       </c>
       <c r="N175" s="1" t="s">
-        <v>544</v>
+        <v>599</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -9788,7 +9805,7 @@
         <v>253</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>270</v>
@@ -9806,7 +9823,7 @@
         <v>473</v>
       </c>
       <c r="N176" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -9832,7 +9849,7 @@
         <v>252</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>273</v>
@@ -9850,7 +9867,7 @@
         <v>498</v>
       </c>
       <c r="N177" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="178" spans="1:14">
@@ -9876,7 +9893,7 @@
         <v>253</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>277</v>
@@ -9894,7 +9911,7 @@
         <v>479</v>
       </c>
       <c r="N178" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:14">
@@ -9920,7 +9937,7 @@
         <v>252</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>272</v>
@@ -9938,7 +9955,7 @@
         <v>523</v>
       </c>
       <c r="N179" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -9958,7 +9975,7 @@
         <v>2023</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>251</v>
@@ -9982,7 +9999,7 @@
         <v>524</v>
       </c>
       <c r="N180" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -10052,7 +10069,7 @@
         <v>256</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>274</v>
@@ -10070,7 +10087,7 @@
         <v>525</v>
       </c>
       <c r="N182" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="183" spans="1:14">
@@ -10114,7 +10131,7 @@
         <v>526</v>
       </c>
       <c r="N183" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="184" spans="1:14">
@@ -10213,7 +10230,7 @@
         <v>134</v>
       </c>
       <c r="C186" s="2">
-        <v>9521</v>
+        <v>7684</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>181</v>
@@ -10246,7 +10263,7 @@
         <v>527</v>
       </c>
       <c r="N186" s="1" t="s">
-        <v>553</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="1:14">
@@ -10257,7 +10274,7 @@
         <v>134</v>
       </c>
       <c r="C187" s="2">
-        <v>7684</v>
+        <v>9521</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>181</v>
@@ -10290,7 +10307,7 @@
         <v>527</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>601</v>
+        <v>554</v>
       </c>
     </row>
     <row r="188" spans="1:14">
@@ -10319,7 +10336,7 @@
         <v>259</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>14</v>
@@ -10334,7 +10351,7 @@
         <v>481</v>
       </c>
       <c r="N188" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -10360,7 +10377,7 @@
         <v>250</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I189" s="1" t="s">
         <v>278</v>
@@ -10374,7 +10391,7 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="190" spans="1:14">
@@ -10506,7 +10523,7 @@
         <v>528</v>
       </c>
       <c r="N192" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -10532,10 +10549,10 @@
         <v>253</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>14</v>
@@ -10576,10 +10593,10 @@
         <v>253</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>14</v>
@@ -10638,7 +10655,7 @@
         <v>529</v>
       </c>
       <c r="N195" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="196" spans="1:14">
@@ -10658,13 +10675,13 @@
         <v>2023</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I196" s="1" t="s">
         <v>278</v>
@@ -10678,7 +10695,7 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="N196" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:14">
@@ -10698,7 +10715,7 @@
         <v>2023</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G197" s="1" t="s">
         <v>251</v>
@@ -10722,7 +10739,7 @@
         <v>530</v>
       </c>
       <c r="N197" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="198" spans="1:14">
@@ -10748,10 +10765,10 @@
         <v>210</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>15</v>
@@ -10762,7 +10779,7 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="N198" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="1:14">
@@ -10788,10 +10805,10 @@
         <v>210</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>15</v>
@@ -10802,7 +10819,7 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="N199" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:14">
@@ -10828,7 +10845,7 @@
         <v>203</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I200" s="1" t="s">
         <v>270</v>
@@ -10842,7 +10859,7 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="201" spans="1:14">
@@ -10862,13 +10879,13 @@
         <v>2023</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I201" s="1" t="s">
         <v>278</v>
@@ -10930,7 +10947,7 @@
         <v>522</v>
       </c>
       <c r="N202" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -10959,7 +10976,7 @@
         <v>260</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>16</v>
@@ -10974,7 +10991,7 @@
         <v>531</v>
       </c>
       <c r="N203" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -11018,7 +11035,7 @@
         <v>510</v>
       </c>
       <c r="N204" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="205" spans="1:14">
@@ -11038,10 +11055,10 @@
         <v>2023</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>238</v>
+        <v>186</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>261</v>
@@ -11062,7 +11079,7 @@
         <v>532</v>
       </c>
       <c r="N205" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="1:14">
@@ -11082,10 +11099,10 @@
         <v>2023</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>261</v>
@@ -11106,7 +11123,7 @@
         <v>532</v>
       </c>
       <c r="N206" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:14">
@@ -11126,10 +11143,10 @@
         <v>2023</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>261</v>
@@ -11150,7 +11167,7 @@
         <v>532</v>
       </c>
       <c r="N207" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="1:14">
@@ -11170,10 +11187,10 @@
         <v>2023</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>261</v>
@@ -11194,7 +11211,7 @@
         <v>532</v>
       </c>
       <c r="N208" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="209" spans="1:14">
@@ -11238,7 +11255,7 @@
         <v>532</v>
       </c>
       <c r="N209" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:14">
@@ -11282,7 +11299,7 @@
         <v>532</v>
       </c>
       <c r="N210" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:14">
@@ -11293,7 +11310,7 @@
         <v>150</v>
       </c>
       <c r="C211" s="2">
-        <v>8200</v>
+        <v>9441</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>181</v>
@@ -11305,10 +11322,10 @@
         <v>243</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>273</v>
@@ -11326,7 +11343,7 @@
         <v>533</v>
       </c>
       <c r="N211" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -11337,7 +11354,7 @@
         <v>150</v>
       </c>
       <c r="C212" s="2">
-        <v>9441</v>
+        <v>7015</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>181</v>
@@ -11349,10 +11366,10 @@
         <v>243</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I212" s="1" t="s">
         <v>273</v>
@@ -11370,7 +11387,7 @@
         <v>533</v>
       </c>
       <c r="N212" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -11381,7 +11398,7 @@
         <v>150</v>
       </c>
       <c r="C213" s="2">
-        <v>7015</v>
+        <v>8200</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>181</v>
@@ -11393,10 +11410,10 @@
         <v>243</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I213" s="1" t="s">
         <v>273</v>
@@ -11414,7 +11431,7 @@
         <v>533</v>
       </c>
       <c r="N213" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -11458,7 +11475,7 @@
         <v>534</v>
       </c>
       <c r="N214" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="215" spans="1:14">
@@ -11478,10 +11495,10 @@
         <v>2023</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>261</v>
@@ -11502,7 +11519,7 @@
         <v>532</v>
       </c>
       <c r="N215" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="216" spans="1:14">
@@ -11522,10 +11539,10 @@
         <v>2023</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>261</v>
@@ -11546,7 +11563,7 @@
         <v>532</v>
       </c>
       <c r="N216" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="217" spans="1:14">
@@ -11566,10 +11583,10 @@
         <v>2023</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>261</v>
@@ -11590,7 +11607,7 @@
         <v>532</v>
       </c>
       <c r="N217" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="218" spans="1:14">
@@ -11610,10 +11627,10 @@
         <v>2023</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>261</v>
@@ -11634,7 +11651,7 @@
         <v>532</v>
       </c>
       <c r="N218" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:14">
@@ -11654,10 +11671,10 @@
         <v>2023</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>261</v>
@@ -11678,7 +11695,7 @@
         <v>532</v>
       </c>
       <c r="N219" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="220" spans="1:14">
@@ -11698,10 +11715,10 @@
         <v>2023</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>261</v>
@@ -11722,12 +11739,12 @@
         <v>532</v>
       </c>
       <c r="N220" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>153</v>
@@ -11742,19 +11759,19 @@
         <v>2023</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I221" s="1" t="s">
         <v>277</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K221" s="1" t="s">
         <v>390</v>
@@ -11766,12 +11783,12 @@
         <v>511</v>
       </c>
       <c r="N221" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>153</v>
@@ -11786,19 +11803,19 @@
         <v>2023</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I222" s="1" t="s">
         <v>277</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K222" s="1" t="s">
         <v>390</v>
@@ -11810,7 +11827,7 @@
         <v>511</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="223" spans="1:14">
@@ -11854,7 +11871,7 @@
         <v>535</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="224" spans="1:14">
@@ -11880,7 +11897,7 @@
         <v>250</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I224" s="1" t="s">
         <v>277</v>
@@ -11898,7 +11915,7 @@
         <v>536</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="225" spans="1:14">
@@ -11918,13 +11935,13 @@
         <v>2023</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G225" s="1" t="s">
         <v>207</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I225" s="1" t="s">
         <v>271</v>
@@ -11942,7 +11959,7 @@
         <v>474</v>
       </c>
       <c r="N225" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:14">
@@ -11960,10 +11977,10 @@
         <v>2023</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>266</v>
@@ -12022,7 +12039,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
       <c r="N227" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="228" spans="1:14">
@@ -12066,7 +12083,7 @@
         <v>493</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="229" spans="1:14">
@@ -12086,7 +12103,7 @@
         <v>2023</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>196</v>
@@ -12110,7 +12127,7 @@
         <v>512</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="230" spans="1:14">
@@ -12130,16 +12147,16 @@
         <v>2023</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>17</v>
@@ -12154,7 +12171,7 @@
         <v>538</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:14">
@@ -12174,16 +12191,16 @@
         <v>2023</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>17</v>
@@ -12198,7 +12215,7 @@
         <v>538</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="232" spans="1:14">
@@ -12218,10 +12235,10 @@
         <v>2023</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>261</v>
@@ -12242,7 +12259,7 @@
         <v>539</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="233" spans="1:14">
@@ -12268,7 +12285,7 @@
         <v>253</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I233" s="1" t="s">
         <v>277</v>
@@ -12282,7 +12299,7 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
       <c r="N233" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="234" spans="1:14">
@@ -12308,7 +12325,7 @@
         <v>249</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>277</v>
@@ -12322,7 +12339,7 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
       <c r="N234" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:14">
@@ -12362,7 +12379,7 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
       <c r="N235" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:14">
@@ -12391,7 +12408,7 @@
         <v>260</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>17</v>
@@ -12402,7 +12419,7 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
       <c r="N236" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="237" spans="1:14">
@@ -12422,10 +12439,10 @@
         <v>2023</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>265</v>
@@ -12488,7 +12505,7 @@
         <v>540</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="239" spans="1:14">
@@ -12532,7 +12549,7 @@
         <v>532</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="240" spans="1:14">
@@ -12576,7 +12593,7 @@
         <v>532</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="241" spans="1:14">
@@ -12596,10 +12613,10 @@
         <v>2023</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>261</v>
@@ -12620,7 +12637,7 @@
         <v>532</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:14">
@@ -12640,10 +12657,10 @@
         <v>2023</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>261</v>
@@ -12664,7 +12681,7 @@
         <v>532</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="243" spans="1:14">
@@ -12684,10 +12701,10 @@
         <v>2023</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>261</v>
@@ -12708,7 +12725,7 @@
         <v>532</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="244" spans="1:14">
@@ -12728,10 +12745,10 @@
         <v>2023</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>261</v>
@@ -12752,7 +12769,7 @@
         <v>532</v>
       </c>
       <c r="N244" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="245" spans="1:14">
@@ -12796,7 +12813,7 @@
         <v>539</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="246" spans="1:14">
@@ -12816,13 +12833,13 @@
         <v>2023</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>273</v>
@@ -12840,7 +12857,7 @@
         <v>501</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:14">
@@ -12866,7 +12883,7 @@
         <v>249</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>277</v>
@@ -12880,7 +12897,7 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
       <c r="N247" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:14">
@@ -12906,7 +12923,7 @@
         <v>255</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>273</v>
@@ -12924,7 +12941,7 @@
         <v>484</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="1:14">
@@ -12950,7 +12967,7 @@
         <v>250</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>273</v>
@@ -12968,7 +12985,7 @@
         <v>484</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:14">
@@ -12988,16 +13005,16 @@
         <v>2023</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>17</v>
@@ -13012,7 +13029,7 @@
         <v>485</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:14">
@@ -13038,7 +13055,7 @@
         <v>253</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>273</v>
@@ -13056,7 +13073,7 @@
         <v>486</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:14">
@@ -13076,16 +13093,16 @@
         <v>2023</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>17</v>
@@ -13118,16 +13135,16 @@
         <v>2023</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>17</v>
@@ -13166,10 +13183,10 @@
         <v>196</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>17</v>
@@ -13184,7 +13201,7 @@
         <v>504</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="1:14">
@@ -13204,16 +13221,16 @@
         <v>2023</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>17</v>
@@ -13228,7 +13245,7 @@
         <v>504</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -13248,10 +13265,10 @@
         <v>2023</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>259</v>
@@ -13272,7 +13289,7 @@
         <v>504</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="257" spans="1:14">
@@ -13292,16 +13309,16 @@
         <v>2023</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>15</v>
@@ -13332,16 +13349,16 @@
         <v>2023</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>15</v>
@@ -13372,13 +13389,13 @@
         <v>2023</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>196</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I259" s="1" t="s">
         <v>277</v>
@@ -13396,7 +13413,7 @@
         <v>513</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:14">
@@ -13440,7 +13457,7 @@
         <v>514</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="261" spans="1:14">
@@ -13469,7 +13486,7 @@
         <v>260</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>18</v>
@@ -13484,7 +13501,7 @@
         <v>493</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="336">
   <si>
     <t>katedra</t>
   </si>
@@ -67,12 +67,12 @@
     <t>KGEO</t>
   </si>
   <si>
+    <t>KBI</t>
+  </si>
+  <si>
     <t>KFY</t>
   </si>
   <si>
-    <t>KBI</t>
-  </si>
-  <si>
     <t>CNB</t>
   </si>
   <si>
@@ -100,9 +100,6 @@
     <t>B304</t>
   </si>
   <si>
-    <t>B306</t>
-  </si>
-  <si>
     <t>B308</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
     <t>BK100</t>
   </si>
   <si>
+    <t>BK120</t>
+  </si>
+  <si>
     <t>BK201</t>
   </si>
   <si>
@@ -133,6 +133,9 @@
     <t>BK306</t>
   </si>
   <si>
+    <t>BK333</t>
+  </si>
+  <si>
     <t>BP120</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>IT2</t>
   </si>
   <si>
+    <t>K101</t>
+  </si>
+  <si>
     <t>KB120</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>LB2</t>
   </si>
   <si>
+    <t>LBA</t>
+  </si>
+  <si>
     <t>M100</t>
   </si>
   <si>
@@ -205,9 +214,15 @@
     <t>NA03</t>
   </si>
   <si>
+    <t>OCHE</t>
+  </si>
+  <si>
     <t>OPT</t>
   </si>
   <si>
+    <t>P391</t>
+  </si>
+  <si>
     <t>P514</t>
   </si>
   <si>
@@ -232,12 +247,12 @@
     <t>2.10.2024</t>
   </si>
   <si>
+    <t>28.11.2024</t>
+  </si>
+  <si>
     <t>14.11.2024</t>
   </si>
   <si>
-    <t>28.11.2024</t>
-  </si>
-  <si>
     <t>3.10.2024</t>
   </si>
   <si>
@@ -253,31 +268,40 @@
     <t>20.2.2025</t>
   </si>
   <si>
+    <t>5.10.2024</t>
+  </si>
+  <si>
     <t>21.12.2024</t>
   </si>
   <si>
     <t>9.11.2024</t>
   </si>
   <si>
+    <t>19.10.2024</t>
+  </si>
+  <si>
     <t>14.12.2024</t>
   </si>
   <si>
+    <t>7.12.2024</t>
+  </si>
+  <si>
     <t>4.1.2025</t>
   </si>
   <si>
-    <t>7.12.2024</t>
-  </si>
-  <si>
     <t>30.11.2024</t>
   </si>
   <si>
     <t>3.1.2025</t>
   </si>
   <si>
+    <t>14.10.2024</t>
+  </si>
+  <si>
     <t>9.10.2024</t>
   </si>
   <si>
-    <t>19.10.2024</t>
+    <t>12.10.2024</t>
   </si>
   <si>
     <t>23.11.2024</t>
@@ -286,24 +310,18 @@
     <t>16.11.2024</t>
   </si>
   <si>
-    <t>12.10.2024</t>
+    <t>1.11.2024</t>
+  </si>
+  <si>
+    <t>13.12.2024</t>
   </si>
   <si>
     <t>29.11.2024</t>
   </si>
   <si>
-    <t>1.11.2024</t>
-  </si>
-  <si>
-    <t>13.12.2024</t>
-  </si>
-  <si>
     <t>19.2.2025</t>
   </si>
   <si>
-    <t>14.10.2024</t>
-  </si>
-  <si>
     <t>18.12.2024</t>
   </si>
   <si>
@@ -322,12 +340,12 @@
     <t>11.12.2024</t>
   </si>
   <si>
+    <t>9.12.2024</t>
+  </si>
+  <si>
     <t>14.5.2025</t>
   </si>
   <si>
-    <t>9.12.2024</t>
-  </si>
-  <si>
     <t>10:00</t>
   </si>
   <si>
@@ -343,12 +361,12 @@
     <t>13:00</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
     <t>14:00</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>07:00</t>
   </si>
   <si>
@@ -388,12 +406,12 @@
     <t>19:50</t>
   </si>
   <si>
+    <t>18:50</t>
+  </si>
+  <si>
     <t>08:50</t>
   </si>
   <si>
-    <t>18:50</t>
-  </si>
-  <si>
     <t>B100KCH</t>
   </si>
   <si>
@@ -418,9 +436,6 @@
     <t>B304KCH</t>
   </si>
   <si>
-    <t>B306KCH</t>
-  </si>
-  <si>
     <t>B308KGEO</t>
   </si>
   <si>
@@ -439,10 +454,13 @@
     <t>B511KGEO</t>
   </si>
   <si>
+    <t>BK100KGEO</t>
+  </si>
+  <si>
     <t>BK100KCH</t>
   </si>
   <si>
-    <t>BK100KGEO</t>
+    <t>BK120KBI</t>
   </si>
   <si>
     <t>BK201KFY</t>
@@ -454,6 +472,9 @@
     <t>BK306KCH</t>
   </si>
   <si>
+    <t>BK333KBI</t>
+  </si>
+  <si>
     <t>BP120KBI</t>
   </si>
   <si>
@@ -466,6 +487,9 @@
     <t>IT2KBI</t>
   </si>
   <si>
+    <t>K101KBI</t>
+  </si>
+  <si>
     <t>KB120KBI</t>
   </si>
   <si>
@@ -484,6 +508,9 @@
     <t>LB2KFY</t>
   </si>
   <si>
+    <t>LBAKCH</t>
+  </si>
+  <si>
     <t>M100KFY</t>
   </si>
   <si>
@@ -496,6 +523,9 @@
     <t>M103KGEO</t>
   </si>
   <si>
+    <t>M105KCH</t>
+  </si>
+  <si>
     <t>M105KGEO</t>
   </si>
   <si>
@@ -526,9 +556,15 @@
     <t>NA03CNB</t>
   </si>
   <si>
+    <t>OCHEKCH</t>
+  </si>
+  <si>
     <t>OPTKFY</t>
   </si>
   <si>
+    <t>P391KCH</t>
+  </si>
+  <si>
     <t>P514KCH</t>
   </si>
   <si>
@@ -571,36 +607,36 @@
     <t>Chemické inženýrství</t>
   </si>
   <si>
+    <t>Monitor. vybr. prvků atmosf.a hydrosf. I</t>
+  </si>
+  <si>
+    <t>Regionální geografie II</t>
+  </si>
+  <si>
+    <t>Prostorové plánování a reg. politika</t>
+  </si>
+  <si>
+    <t>Geografie modelového regionu</t>
+  </si>
+  <si>
+    <t>Přírodní památky UNESCO</t>
+  </si>
+  <si>
+    <t>Metody ve fyzické geografii</t>
+  </si>
+  <si>
+    <t>Základy geologie</t>
+  </si>
+  <si>
+    <t>Biologické laboratorní metody I</t>
+  </si>
+  <si>
+    <t>Fyzika pro chemiky II</t>
+  </si>
+  <si>
     <t>Heterocyklické a organokovové sloučeniny</t>
   </si>
   <si>
-    <t>Monitor. vybr. prvků atmosf.a hydrosf. I</t>
-  </si>
-  <si>
-    <t>Regionální geografie II</t>
-  </si>
-  <si>
-    <t>Prostorové plánování a reg. politika</t>
-  </si>
-  <si>
-    <t>Geografie modelového regionu</t>
-  </si>
-  <si>
-    <t>Přírodní památky UNESCO</t>
-  </si>
-  <si>
-    <t>Metody ve fyzické geografii</t>
-  </si>
-  <si>
-    <t>Základy geologie</t>
-  </si>
-  <si>
-    <t>Fyzika pro chemiky II</t>
-  </si>
-  <si>
-    <t>Biologické laboratorní metody I</t>
-  </si>
-  <si>
     <t>Biologie prokaryot a virů</t>
   </si>
   <si>
@@ -610,6 +646,9 @@
     <t>Informační technologie v bio. vědách II</t>
   </si>
   <si>
+    <t>Úvod do studia biologie</t>
+  </si>
+  <si>
     <t>Praktikum počítačového modelování I</t>
   </si>
   <si>
@@ -628,6 +667,9 @@
     <t>Aktuální problémy Česka</t>
   </si>
   <si>
+    <t>Syntézy, izolace a charakter. materiálů</t>
+  </si>
+  <si>
     <t>Didaktika geografie I</t>
   </si>
   <si>
@@ -655,6 +697,9 @@
     <t>Praktika z difr. metod v mater. výzkumu</t>
   </si>
   <si>
+    <t>Obecná chemie</t>
+  </si>
+  <si>
     <t>Kmity a vlny. Optika.</t>
   </si>
   <si>
@@ -676,7 +721,7 @@
     <t>'doc. PhDr. RNDr. Jan Daniel Bláha, Ph.D.', 'Mgr. Petr Meyer, Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. Ing. Jan Čermák, CSc.', 'Mgr. Tereza Dušková'</t>
+    <t>'Mgr. Tereza Dušková'</t>
   </si>
   <si>
     <t>'Ing. Ivana Kadlečková', 'RNDr. Václav Šícha, Ph.D.'</t>
@@ -688,9 +733,6 @@
     <t>'doc. Ing. Jaromír Havlica, Ph.D.'</t>
   </si>
   <si>
-    <t>'doc. Ing. Jan Čermák, CSc.', 'RNDr. Thu Huong Nguyen Thi, Ph.D.'</t>
-  </si>
-  <si>
     <t>'doc. RNDr. Jiří Anděl, CSc.'</t>
   </si>
   <si>
@@ -703,6 +745,9 @@
     <t>'Mgr. Lukáš Bystrianský, Ph.D.', 'RNDr. Lenka Němcová, CSc.'</t>
   </si>
   <si>
+    <t>'RNDr. Thu Huong Nguyen Thi, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Jan Ipser, CSc.'</t>
   </si>
   <si>
@@ -718,6 +763,9 @@
     <t>'prof. Ing. Zdeňka Kolská, Ph.D.', 'doc. Ing. Martin Kormunda, Ph.D.', 'Mgr. Jan Malý, Ph.D.', 'Mgr. Jindřich Matoušek, Ph.D.', 'Mgr. Marcel Štofik, Ph.D.'</t>
   </si>
   <si>
+    <t>'Mgr. Pavel Kaule', 'RNDr. Václav Šícha, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Pavel Branny, CSc.'</t>
   </si>
   <si>
@@ -727,6 +775,9 @@
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Jiří Riezner, Ph.D.'</t>
   </si>
   <si>
+    <t>'doc. Ing. Jiří Henych, Ph.D.', 'RNDr. Petr Ryšánek, Ph.D.', 'RNDr. Václav Šícha, Ph.D.', 'RNDr. Milan Šmídl, Ph.D.'</t>
+  </si>
+  <si>
     <t>'RNDr. Silvie Rita Kučerová, Ph.D.', 'Mgr. Zuzana Pavlasová'</t>
   </si>
   <si>
@@ -769,7 +820,7 @@
     <t>3452, 5855</t>
   </si>
   <si>
-    <t>1064, 9302</t>
+    <t>9302</t>
   </si>
   <si>
     <t>4226, 4310</t>
@@ -781,9 +832,6 @@
     <t>1803</t>
   </si>
   <si>
-    <t>1064, 429</t>
-  </si>
-  <si>
     <t>312</t>
   </si>
   <si>
@@ -796,6 +844,9 @@
     <t>5969, 283</t>
   </si>
   <si>
+    <t>429</t>
+  </si>
+  <si>
     <t>930</t>
   </si>
   <si>
@@ -811,6 +862,9 @@
     <t>332, 2384, 280, 4680, 1503</t>
   </si>
   <si>
+    <t>7981, 4310</t>
+  </si>
+  <si>
     <t>8154</t>
   </si>
   <si>
@@ -820,6 +874,9 @@
     <t>3528, 3164</t>
   </si>
   <si>
+    <t>5431, 4587, 4310, 3704</t>
+  </si>
+  <si>
     <t>3528, 2232</t>
   </si>
   <si>
@@ -865,6 +922,9 @@
     <t>Babor Martin, Ing. Ph.D.</t>
   </si>
   <si>
+    <t>Kaule Pavel, Mgr.</t>
+  </si>
+  <si>
     <t>Greguš Viktor, Ing.</t>
   </si>
   <si>
@@ -880,39 +940,39 @@
     <t>Harrandt Václav, Mgr.</t>
   </si>
   <si>
+    <t>Farský Ivan, RNDr. CSc.</t>
+  </si>
+  <si>
+    <t>Martínek Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Lukešová Šárka, Mgr.</t>
+  </si>
+  <si>
+    <t>Vágner Jiří, RNDr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Dužeková Radka, Mgr.</t>
+  </si>
+  <si>
+    <t>Vaverka Lukáš, Mgr.</t>
+  </si>
+  <si>
+    <t>Riezner Jiří, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Štěpka Jan, Mgr. DiS.</t>
+  </si>
+  <si>
+    <t>Švec Martin, RNDr. Ph.D.</t>
+  </si>
+  <si>
     <t>Dušková Tereza, Mgr.</t>
   </si>
   <si>
-    <t>Farský Ivan, RNDr. CSc.</t>
-  </si>
-  <si>
-    <t>Martínek Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Kučerová Silvie Rita, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Lukešová Šárka, Mgr.</t>
-  </si>
-  <si>
-    <t>Vágner Jiří, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Dužeková Radka, Mgr.</t>
-  </si>
-  <si>
-    <t>Vaverka Lukáš, Mgr.</t>
-  </si>
-  <si>
-    <t>Riezner Jiří, Mgr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Švec Martin, RNDr. Ph.D.</t>
-  </si>
-  <si>
-    <t>Štěpka Jan, Mgr. DiS.</t>
-  </si>
-  <si>
     <t>Šebestová Janoušková Olga, Mgr. Ph.D.</t>
   </si>
   <si>
@@ -920,6 +980,9 @@
   </si>
   <si>
     <t>Štofik Marcel, Mgr. Ph.D.</t>
+  </si>
+  <si>
+    <t>Herma Regina, RNDr. Ph.D.</t>
   </si>
   <si>
     <t>Jagerová Adéla, RNDr. Ph.D.</t>
@@ -1020,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:O80" totalsRowShown="0">
-  <autoFilter ref="A1:O80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:O89" totalsRowShown="0">
+  <autoFilter ref="A1:O89"/>
   <tableColumns count="15">
     <tableColumn id="1" name="katedra" dataDxfId="0"/>
     <tableColumn id="2" name="zkratka" dataDxfId="0"/>
@@ -1328,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1392,40 +1455,40 @@
         <v>3705</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>2024</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1439,40 +1502,40 @@
         <v>3705</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2">
         <v>2024</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1486,40 +1549,40 @@
         <v>1319</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2">
         <v>2024</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1533,40 +1596,40 @@
         <v>1319</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2">
         <v>2024</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1580,40 +1643,40 @@
         <v>8819</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2">
         <v>2024</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1627,40 +1690,40 @@
         <v>8819</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2">
         <v>2024</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1674,40 +1737,40 @@
         <v>9645</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>2024</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1721,40 +1784,40 @@
         <v>9645</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2">
         <v>2024</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1765,90 +1828,90 @@
         <v>25</v>
       </c>
       <c r="C10" s="2">
-        <v>9301</v>
+        <v>7981</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2">
         <v>2024</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>9265</v>
+        <v>9301</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2">
         <v>2024</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1859,43 +1922,43 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2">
         <v>2024</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1909,40 +1972,40 @@
         <v>8647</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2">
         <v>2024</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1950,42 +2013,46 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2">
         <v>2024</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="O14" s="1" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1999,83 +2066,79 @@
         <v>6919</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2">
         <v>2024</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2">
-        <v>9431</v>
+        <v>9265</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2">
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2089,36 +2152,36 @@
         <v>6919</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2">
         <v>2024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2126,46 +2189,46 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>9302</v>
+        <v>9431</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2">
         <v>2024</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2173,42 +2236,42 @@
         <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2">
         <v>315</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2">
         <v>2024</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2216,46 +2279,46 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>828</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2">
         <v>2024</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2263,46 +2326,46 @@
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2">
         <v>828</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E21" s="2">
         <v>2024</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2310,46 +2373,46 @@
         <v>16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="2">
         <v>828</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>2024</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2357,46 +2420,46 @@
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2">
         <v>3528</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="2">
         <v>2024</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2404,46 +2467,46 @@
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
         <v>3528</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2">
         <v>2024</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2451,46 +2514,46 @@
         <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
         <v>9794</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2">
         <v>2024</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2498,42 +2561,42 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
         <v>4398</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2">
         <v>2024</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2541,46 +2604,46 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
         <v>9245</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2">
         <v>2024</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2588,93 +2651,89 @@
         <v>16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <v>9521</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E28" s="2">
         <v>2024</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
-        <v>3705</v>
+        <v>3164</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2">
         <v>2024</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2682,89 +2741,93 @@
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2">
         <v>3705</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2">
         <v>2024</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="2">
-        <v>3164</v>
+        <v>3705</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2">
         <v>2024</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="O31" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2772,89 +2835,89 @@
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="2">
-        <v>613</v>
+        <v>9116</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E32" s="2">
         <v>2024</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+        <v>204</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="O32" s="1" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2">
-        <v>9431</v>
+        <v>613</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2">
         <v>2024</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>254</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2868,40 +2931,40 @@
         <v>9431</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2">
         <v>2024</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2915,40 +2978,40 @@
         <v>9431</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2">
         <v>2024</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2956,234 +3019,234 @@
         <v>15</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2">
-        <v>9302</v>
+        <v>9431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2">
         <v>2024</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2">
-        <v>9116</v>
+        <v>9302</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2">
         <v>2024</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2">
         <v>8512</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E38" s="2">
         <v>2024</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C39" s="2">
-        <v>8512</v>
+        <v>9116</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2">
         <v>2024</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C40" s="2">
-        <v>8512</v>
+        <v>9116</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2">
         <v>2024</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3194,133 +3257,137 @@
         <v>41</v>
       </c>
       <c r="C41" s="2">
-        <v>3222</v>
+        <v>8512</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2">
         <v>2024</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
-        <v>1503</v>
+        <v>8512</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2">
         <v>2024</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="O42" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
-        <v>9116</v>
+        <v>8512</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2">
         <v>2024</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3328,46 +3395,46 @@
         <v>18</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2">
-        <v>8512</v>
+        <v>3222</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2">
         <v>2024</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3375,46 +3442,42 @@
         <v>17</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2">
-        <v>3222</v>
+        <v>1503</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2">
         <v>2024</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>261</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
       <c r="O45" s="1" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3422,46 +3485,46 @@
         <v>17</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
-        <v>3222</v>
+        <v>8317</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2">
         <v>2024</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3472,86 +3535,90 @@
         <v>45</v>
       </c>
       <c r="C47" s="2">
-        <v>3222</v>
+        <v>9116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2">
         <v>2024</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C48" s="2">
-        <v>1503</v>
+        <v>8512</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2">
         <v>2024</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
+        <v>207</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="O48" s="1" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -3559,424 +3626,420 @@
         <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
-        <v>1503</v>
+        <v>3222</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2">
         <v>2024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="O49" s="1" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C50" s="2">
-        <v>7283</v>
+        <v>3222</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2">
         <v>2024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O50" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C51" s="2">
-        <v>7283</v>
+        <v>3222</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2">
         <v>2024</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" s="1"/>
+        <v>278</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2">
-        <v>7283</v>
+        <v>1503</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2">
         <v>2024</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O52" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53" s="2">
-        <v>7283</v>
+        <v>1503</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2">
         <v>2024</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O53" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2">
-        <v>8739</v>
+        <v>7283</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2">
         <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>302</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C55" s="2">
-        <v>7723</v>
+        <v>7283</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2">
         <v>2024</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>303</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2">
-        <v>3661</v>
+        <v>7283</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2">
         <v>2024</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>304</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2">
-        <v>8198</v>
+        <v>7283</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2">
         <v>2024</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>305</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2">
-        <v>6919</v>
+        <v>8739</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2">
         <v>2024</v>
@@ -3985,92 +4048,92 @@
         <v>76</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C59" s="2">
-        <v>6384</v>
+        <v>9301</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2">
         <v>2024</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2">
-        <v>2214</v>
+        <v>7723</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2">
         <v>2024</v>
@@ -4079,266 +4142,266 @@
         <v>76</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C61" s="2">
-        <v>9460</v>
+        <v>3661</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2">
         <v>2024</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C62" s="2">
-        <v>9521</v>
+        <v>8198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E62" s="2">
         <v>2024</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2">
-        <v>8198</v>
+        <v>6919</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E63" s="2">
         <v>2024</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C64" s="2">
-        <v>9521</v>
+        <v>7981</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E64" s="2">
         <v>2024</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C65" s="2">
-        <v>7684</v>
+        <v>9301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E65" s="2">
         <v>2024</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:15">
@@ -4346,46 +4409,46 @@
         <v>16</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C66" s="2">
         <v>6384</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E66" s="2">
         <v>2024</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4393,103 +4456,107 @@
         <v>16</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C67" s="2">
-        <v>6384</v>
+        <v>2214</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E67" s="2">
         <v>2024</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="O67" s="1" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2">
-        <v>8761</v>
+        <v>9460</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2">
         <v>2024</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2">
-        <v>4587</v>
+        <v>9521</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E69" s="2">
         <v>2024</v>
@@ -4498,31 +4565,31 @@
         <v>76</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4530,512 +4597,931 @@
         <v>17</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2">
-        <v>7283</v>
+        <v>8198</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E70" s="2">
         <v>2024</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="O70" s="1"/>
+        <v>290</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2">
-        <v>2856</v>
+        <v>7684</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E71" s="2">
         <v>2024</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C72" s="2">
-        <v>9116</v>
+        <v>9521</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E72" s="2">
         <v>2024</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="2">
-        <v>9116</v>
+        <v>6384</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E73" s="2">
         <v>2024</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2">
-        <v>8512</v>
+        <v>6384</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E74" s="2">
         <v>2024</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
       <c r="O74" s="1" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2">
-        <v>8512</v>
+        <v>8761</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E75" s="2">
         <v>2024</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C76" s="2">
-        <v>7283</v>
+        <v>4587</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E76" s="2">
         <v>2024</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O76" s="1"/>
+        <v>293</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C77" s="2">
-        <v>9300</v>
+        <v>3705</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E77" s="2">
         <v>2024</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2">
-        <v>9300</v>
+        <v>7283</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E78" s="2">
         <v>2024</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C79" s="2">
-        <v>9300</v>
+        <v>3705</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E79" s="2">
         <v>2024</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C80" s="2">
+        <v>2856</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" s="2">
+        <v>9116</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E81" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="2">
+        <v>9116</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="2">
+        <v>8512</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C84" s="2">
+        <v>8512</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="2">
+        <v>7283</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="O85" s="1"/>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="2">
+        <v>9300</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" s="2">
+        <v>9300</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C88" s="2">
+        <v>9300</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="2">
         <v>3553</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E80" s="2">
-        <v>2024</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K80" s="1" t="s">
+      <c r="D89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2024</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L80" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="M80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>314</v>
+      <c r="L89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/results_xlsx/cviceni_bez_cvicich.xlsx
+++ b/results_xlsx/cviceni_bez_cvicich.xlsx
@@ -268,12 +268,12 @@
     <t>20.2.2025</t>
   </si>
   <si>
+    <t>21.12.2024</t>
+  </si>
+  <si>
     <t>5.10.2024</t>
   </si>
   <si>
-    <t>21.12.2024</t>
-  </si>
-  <si>
     <t>9.11.2024</t>
   </si>
   <si>
@@ -283,15 +283,15 @@
     <t>14.12.2024</t>
   </si>
   <si>
+    <t>30.11.2024</t>
+  </si>
+  <si>
     <t>7.12.2024</t>
   </si>
   <si>
     <t>4.1.2025</t>
   </si>
   <si>
-    <t>30.11.2024</t>
-  </si>
-  <si>
     <t>3.1.2025</t>
   </si>
   <si>
@@ -310,15 +310,15 @@
     <t>16.11.2024</t>
   </si>
   <si>
+    <t>29.11.2024</t>
+  </si>
+  <si>
     <t>1.11.2024</t>
   </si>
   <si>
     <t>13.12.2024</t>
   </si>
   <si>
-    <t>29.11.2024</t>
-  </si>
-  <si>
     <t>19.2.2025</t>
   </si>
   <si>
@@ -337,33 +337,33 @@
     <t>15.5.2025</t>
   </si>
   <si>
+    <t>9.12.2024</t>
+  </si>
+  <si>
     <t>11.12.2024</t>
   </si>
   <si>
-    <t>9.12.2024</t>
-  </si>
-  <si>
     <t>14.5.2025</t>
   </si>
   <si>
+    <t>08:00</t>
+  </si>
+  <si>
     <t>10:00</t>
   </si>
   <si>
-    <t>08:00</t>
-  </si>
-  <si>
     <t>15:00</t>
   </si>
   <si>
     <t>12:00</t>
   </si>
   <si>
+    <t>17:00</t>
+  </si>
+  <si>
     <t>13:00</t>
   </si>
   <si>
-    <t>17:00</t>
-  </si>
-  <si>
     <t>14:00</t>
   </si>
   <si>
@@ -379,12 +379,12 @@
     <t>09:00</t>
   </si>
   <si>
+    <t>09:50</t>
+  </si>
+  <si>
     <t>11:50</t>
   </si>
   <si>
-    <t>09:50</t>
-  </si>
-  <si>
     <t>17:50</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>B511KGEO</t>
   </si>
   <si>
+    <t>BK100KCH</t>
+  </si>
+  <si>
     <t>BK100KGEO</t>
   </si>
   <si>
-    <t>BK100KCH</t>
-  </si>
-  <si>
     <t>BK120KBI</t>
   </si>
   <si>
@@ -928,18 +928,18 @@
     <t>Greguš Viktor, Ing.</t>
   </si>
   <si>
+    <t>Šmíd Ondřej, Mgr.</t>
+  </si>
+  <si>
     <t>Král Tomáš, Mgr.</t>
   </si>
   <si>
-    <t>Šmíd Ondřej, Mgr.</t>
+    <t>Harrandt Václav, Mgr.</t>
   </si>
   <si>
     <t>Píša Jan, Mgr. Ph.D.</t>
   </si>
   <si>
-    <t>Harrandt Václav, Mgr.</t>
-  </si>
-  <si>
     <t>Farský Ivan, RNDr. CSc.</t>
   </si>
   <si>
@@ -955,10 +955,10 @@
     <t>Vágner Jiří, RNDr. Ph.D.</t>
   </si>
   <si>
+    <t>Vaverka Lukáš, Mgr.</t>
+  </si>
+  <si>
     <t>Dužeková Radka, Mgr.</t>
-  </si>
-  <si>
-    <t>Vaverka Lukáš, Mgr.</t>
   </si>
   <si>
     <t>Riezner Jiří, Mgr. Ph.D.</t>
@@ -1649,10 +1649,10 @@
         <v>2024</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>112</v>
@@ -1696,10 +1696,10 @@
         <v>2024</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>112</v>
@@ -1843,10 +1843,10 @@
         <v>105</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>136</v>
@@ -1890,10 +1890,10 @@
         <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>136</v>
@@ -1922,7 +1922,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>9265</v>
+        <v>8647</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>75</v>
@@ -1931,16 +1931,16 @@
         <v>2024</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>137</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="2">
-        <v>8647</v>
+        <v>9265</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>75</v>
@@ -1978,16 +1978,16 @@
         <v>2024</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>115</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>137</v>
@@ -2052,7 +2052,7 @@
         <v>270</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2063,7 +2063,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="2">
-        <v>6919</v>
+        <v>9265</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>75</v>
@@ -2078,10 +2078,10 @@
         <v>103</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>138</v>
@@ -2095,18 +2095,18 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="2">
-        <v>9265</v>
+        <v>9431</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>75</v>
@@ -2115,30 +2115,34 @@
         <v>2024</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="O16" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2158,16 +2162,16 @@
         <v>2024</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>138</v>
@@ -2181,18 +2185,18 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2">
-        <v>9431</v>
+        <v>6919</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>75</v>
@@ -2201,32 +2205,28 @@
         <v>2024</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
         <v>307</v>
       </c>
@@ -2254,10 +2254,10 @@
         <v>105</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>140</v>
@@ -2344,10 +2344,10 @@
         <v>92</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>141</v>
@@ -2391,10 +2391,10 @@
         <v>92</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>141</v>
@@ -2438,10 +2438,10 @@
         <v>106</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>142</v>
@@ -2485,10 +2485,10 @@
         <v>106</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>142</v>
@@ -2607,7 +2607,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>9245</v>
+        <v>9521</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>75</v>
@@ -2654,7 +2654,7 @@
         <v>33</v>
       </c>
       <c r="C28" s="2">
-        <v>9521</v>
+        <v>9245</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>75</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="2">
-        <v>3164</v>
+        <v>3705</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>75</v>
@@ -2716,35 +2716,39 @@
         <v>84</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>146</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="O29" s="1" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="2">
-        <v>3705</v>
+        <v>3164</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>75</v>
@@ -2759,28 +2763,24 @@
         <v>85</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>147</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>265</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
       <c r="O30" s="1" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2806,13 +2806,13 @@
         <v>86</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>15</v>
@@ -2943,7 +2943,7 @@
         <v>89</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>124</v>
@@ -2964,7 +2964,7 @@
         <v>271</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2990,10 +2990,10 @@
         <v>90</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>150</v>
@@ -3011,7 +3011,7 @@
         <v>271</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -3037,10 +3037,10 @@
         <v>91</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>150</v>
@@ -3058,7 +3058,7 @@
         <v>271</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -3125,10 +3125,10 @@
         <v>2024</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>120</v>
@@ -3172,16 +3172,16 @@
         <v>2024</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>153</v>
@@ -3219,16 +3219,16 @@
         <v>2024</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>108</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>153</v>
@@ -3266,10 +3266,10 @@
         <v>2024</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>113</v>
@@ -3313,16 +3313,16 @@
         <v>2024</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>154</v>
@@ -3360,16 +3360,16 @@
         <v>2024</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>154</v>
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>155</v>
@@ -3460,10 +3460,10 @@
         <v>102</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>156</v>
@@ -3503,7 +3503,7 @@
         <v>95</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>130</v>
@@ -3591,10 +3591,10 @@
         <v>2024</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>120</v>
@@ -3638,16 +3638,16 @@
         <v>2024</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>160</v>
@@ -3685,16 +3685,16 @@
         <v>2024</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>160</v>
@@ -3732,10 +3732,10 @@
         <v>2024</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>120</v>
@@ -3779,16 +3779,16 @@
         <v>2024</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>161</v>
@@ -3822,16 +3822,16 @@
         <v>2024</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>161</v>
@@ -3865,10 +3865,10 @@
         <v>2024</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>120</v>
@@ -3910,10 +3910,10 @@
         <v>2024</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>120</v>
@@ -3955,10 +3955,10 @@
         <v>2024</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>120</v>
@@ -4051,7 +4051,7 @@
         <v>102</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>127</v>
@@ -4098,10 +4098,10 @@
         <v>105</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>164</v>
@@ -4145,7 +4145,7 @@
         <v>102</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>125</v>
@@ -4195,7 +4195,7 @@
         <v>120</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>166</v>
@@ -4289,7 +4289,7 @@
         <v>120</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>168</v>
@@ -4307,7 +4307,7 @@
         <v>285</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -4359,13 +4359,13 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="2">
-        <v>9301</v>
+        <v>6384</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>75</v>
@@ -4374,45 +4374,45 @@
         <v>2024</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C66" s="2">
-        <v>6384</v>
+        <v>9301</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>75</v>
@@ -4421,34 +4421,34 @@
         <v>2024</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:15">
@@ -4474,10 +4474,10 @@
         <v>105</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>171</v>
@@ -4568,10 +4568,10 @@
         <v>102</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>173</v>
@@ -4589,7 +4589,7 @@
         <v>289</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70" spans="1:15">
@@ -4647,7 +4647,7 @@
         <v>61</v>
       </c>
       <c r="C71" s="2">
-        <v>7684</v>
+        <v>9521</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>75</v>
@@ -4683,7 +4683,7 @@
         <v>291</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:15">
@@ -4694,7 +4694,7 @@
         <v>61</v>
       </c>
       <c r="C72" s="2">
-        <v>9521</v>
+        <v>7684</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>75</v>
@@ -4730,7 +4730,7 @@
         <v>291</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="73" spans="1:15">
@@ -4756,7 +4756,7 @@
         <v>103</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>131</v>
@@ -4803,10 +4803,10 @@
         <v>104</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>177</v>
@@ -4846,7 +4846,7 @@
         <v>109</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>130</v>
@@ -4940,10 +4940,10 @@
         <v>102</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>180</v>
@@ -4987,7 +4987,7 @@
         <v>103</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>128</v>
@@ -5032,10 +5032,10 @@
         <v>102</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>182</v>
@@ -5079,10 +5079,10 @@
         <v>103</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>183</v>
@@ -5120,16 +5120,16 @@
         <v>2024</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>184</v>
@@ -5167,16 +5167,16 @@
         <v>2024</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>184</v>
@@ -5214,10 +5214,10 @@
         <v>2024</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>119</v>
@@ -5261,10 +5261,10 @@
         <v>2024</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>119</v>
@@ -5359,10 +5359,10 @@
         <v>102</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>187</v>
@@ -5406,10 +5406,10 @@
         <v>102</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>187</v>
@@ -5453,10 +5453,10 @@
         <v>102</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>187</v>
